--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_16_26.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_16_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>550846.2088386661</v>
+        <v>546238.2668133606</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>30037730.41470735</v>
+        <v>30037730.41470733</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7079999.414649969</v>
+        <v>7079999.414649967</v>
       </c>
     </row>
     <row r="9">
@@ -1369,22 +1369,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>51.64858522861204</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>398.5660300744983</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1420,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>63.90941067458682</v>
+        <v>63.90941067458683</v>
       </c>
       <c r="T11" t="n">
-        <v>211.1448086517629</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>255.632988972596</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>58.22130944557784</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>74.69716260953685</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>75.43872475250879</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>11.68284247578063</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>154.9126128011615</v>
@@ -1584,7 +1584,7 @@
         <v>237.5909258267186</v>
       </c>
       <c r="U13" t="n">
-        <v>264.9158798835684</v>
+        <v>277.3402845023203</v>
       </c>
       <c r="V13" t="n">
         <v>278.8943527180514</v>
@@ -1606,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>63.90941067458683</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>166.2767950576902</v>
+        <v>255.632988972596</v>
       </c>
       <c r="V14" t="n">
         <v>353.914520725013</v>
@@ -1672,10 +1672,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>245.5230310301429</v>
       </c>
       <c r="Y14" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1770,19 +1770,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>33.08508123736378</v>
+        <v>163.8185422817731</v>
       </c>
       <c r="H16" t="n">
-        <v>135.4602252892499</v>
+        <v>40.10462347612908</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1818,10 +1818,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>237.5909258267186</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3402845023203</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1833,7 +1833,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1846,22 +1846,22 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>421.717170453621</v>
+        <v>128.3076960992219</v>
       </c>
       <c r="F17" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>220.9310098516217</v>
+        <v>398.5660300744983</v>
       </c>
       <c r="H17" t="n">
-        <v>277.176001558223</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>63.90941067458683</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1903,10 +1903,10 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -2007,16 +2007,16 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>55.16538685899397</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>11.68284247578064</v>
       </c>
       <c r="S19" t="n">
-        <v>154.9126128011615</v>
+        <v>29.66262390997273</v>
       </c>
       <c r="T19" t="n">
         <v>237.5909258267186</v>
@@ -2064,10 +2064,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
         <v>224.0793406271554</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2092,13 +2092,13 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>398.5660300744983</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>57.89016812284338</v>
+        <v>75.12485239226392</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>63.90941067458685</v>
       </c>
       <c r="T20" t="n">
         <v>211.1448086517629</v>
@@ -2140,13 +2140,13 @@
         <v>255.632988972596</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2177,7 +2177,7 @@
         <v>92.18779416180689</v>
       </c>
       <c r="H21" t="n">
-        <v>43.90453113913449</v>
+        <v>43.9045311391345</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>63.32136466518995</v>
+        <v>63.32136466518996</v>
       </c>
       <c r="T21" t="n">
         <v>136.7309641056443</v>
@@ -2244,19 +2244,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>97.00071224681828</v>
       </c>
       <c r="G22" t="n">
-        <v>163.8185422817731</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>135.4602252892499</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,25 +2286,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>11.68284247578065</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>102.614323615404</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>277.3402845023203</v>
       </c>
       <c r="V22" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
         <v>224.0793406271554</v>
@@ -2317,10 +2317,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D23" t="n">
         <v>419.0596946068497</v>
@@ -2332,10 +2332,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
-        <v>398.09458649269</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>272.3478299760288</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2371,10 +2371,10 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>209.0810643723971</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>194.1075613655371</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>235.3494388712053</v>
       </c>
     </row>
     <row r="24">
@@ -2475,19 +2475,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>118.4122959295955</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>84.79799728622538</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>163.6070689209988</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>2.174231181331173</v>
       </c>
       <c r="S25" t="n">
-        <v>151.2272088683957</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>236.6873578306832</v>
@@ -2557,22 +2557,22 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D26" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>251.4681555432093</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>53.16639005413048</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>209.0810643723971</v>
@@ -2617,13 +2617,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W26" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>244.4336689685888</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2712,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>60.50505471241241</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>133.580034863457</v>
       </c>
       <c r="I28" t="n">
         <v>69.0791440484977</v>
@@ -2766,7 +2766,7 @@
         <v>151.2272088683957</v>
       </c>
       <c r="T28" t="n">
-        <v>236.6873578306832</v>
+        <v>190.3027625667753</v>
       </c>
       <c r="U28" t="n">
         <v>277.3287495917327</v>
@@ -2791,16 +2791,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C29" t="n">
-        <v>403.1886257379344</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E29" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>420.8729399924937</v>
@@ -2842,16 +2842,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>53.16639005413048</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>2.175004763797928</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2958,7 +2958,7 @@
         <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>55.20525501785804</v>
       </c>
       <c r="F31" t="n">
         <v>170.1431564831852</v>
@@ -2970,7 +2970,7 @@
         <v>133.580034863457</v>
       </c>
       <c r="I31" t="n">
-        <v>69.0791440484977</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>98.90873677241707</v>
+        <v>277.3287495917327</v>
       </c>
       <c r="V31" t="n">
         <v>278.8943527180514</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>252.9047330271313</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>422.6317226868329</v>
@@ -3043,10 +3043,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
-        <v>398.09458649269</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>272.3478299760288</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,16 +3079,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>53.16639005413048</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>209.0810643723971</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>116.4040351172643</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3192,22 +3192,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>129.584198760911</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>163.6070689209988</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>133.580034863457</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>69.0791440484977</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>2.174231181331173</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>151.2272088683957</v>
@@ -3252,10 +3252,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
-        <v>240.1382575886529</v>
+        <v>59.56662384191155</v>
       </c>
       <c r="Y34" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3265,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>11.46058418688619</v>
       </c>
       <c r="E35" t="n">
-        <v>194.6588837650391</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>398.09458649269</v>
       </c>
       <c r="H35" t="n">
-        <v>272.3478299760288</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>53.16639005413048</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3331,7 +3331,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
         <v>401.2838973446586</v>
@@ -3435,10 +3435,10 @@
         <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>163.6070689209988</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>133.580034863457</v>
@@ -3477,10 +3477,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>155.3302125848691</v>
       </c>
       <c r="U37" t="n">
-        <v>98.90873677241798</v>
+        <v>277.3287495917327</v>
       </c>
       <c r="V37" t="n">
         <v>278.8943527180514</v>
@@ -3502,13 +3502,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>286.8502982762809</v>
       </c>
       <c r="E38" t="n">
         <v>421.717170453621</v>
@@ -3517,7 +3517,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
-        <v>398.09458649269</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>272.3478299760288</v>
@@ -3553,19 +3553,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>53.16639005413048</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>209.0810643723971</v>
       </c>
       <c r="U38" t="n">
         <v>255.5952734860514</v>
       </c>
       <c r="V38" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>212.7385261337205</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3663,13 +3663,13 @@
         <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
-        <v>130.6329346352751</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
@@ -3678,10 +3678,10 @@
         <v>163.6070689209988</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>123.4685576548474</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>69.0791440484977</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>2.174231181331173</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>151.2272088683957</v>
@@ -3717,10 +3717,10 @@
         <v>236.6873578306832</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3287495917327</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>272.1038797892121</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
         <v>422.6317226868329</v>
@@ -3748,16 +3748,16 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>270.8055864967791</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3793,7 +3793,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>68.12178371294978</v>
+        <v>209.0810643723971</v>
       </c>
       <c r="U41" t="n">
         <v>255.5952734860514</v>
@@ -3802,10 +3802,10 @@
         <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3906,7 +3906,7 @@
         <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>170.1431564831852</v>
@@ -3918,7 +3918,7 @@
         <v>133.580034863457</v>
       </c>
       <c r="I43" t="n">
-        <v>69.0791440484977</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>2.174231181331173</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>151.2272088683957</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>179.132564559864</v>
       </c>
       <c r="U43" t="n">
-        <v>98.90873677241798</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>278.8943527180514</v>
@@ -3976,19 +3976,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>404.8396570018312</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>398.09458649269</v>
@@ -4030,22 +4030,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>209.0810643723971</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.5952734860514</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>400.1318578858643</v>
       </c>
     </row>
     <row r="45">
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.6070689209988</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>42.52816196529982</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>69.0791440484977</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>2.174231181331173</v>
       </c>
       <c r="S46" t="n">
-        <v>151.2272088683957</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>236.6873578306832</v>
@@ -4200,7 +4200,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>226.1600037468266</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
         <v>224.0793406271554</v>
@@ -5017,37 +5017,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>36.27616607839229</v>
+        <v>1343.916073597144</v>
       </c>
       <c r="C11" t="n">
-        <v>36.27616607839229</v>
+        <v>917.0153436104442</v>
       </c>
       <c r="D11" t="n">
-        <v>36.27616607839229</v>
+        <v>917.0153436104442</v>
       </c>
       <c r="E11" t="n">
-        <v>36.27616607839229</v>
+        <v>491.0384037583018</v>
       </c>
       <c r="F11" t="n">
-        <v>36.27616607839229</v>
+        <v>438.8681156485927</v>
       </c>
       <c r="G11" t="n">
-        <v>36.27616607839229</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="H11" t="n">
-        <v>36.27616607839229</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="I11" t="n">
         <v>68.08893453872679</v>
       </c>
       <c r="J11" t="n">
-        <v>184.2963411149081</v>
+        <v>184.2963411149083</v>
       </c>
       <c r="K11" t="n">
-        <v>366.70612912503</v>
+        <v>366.7061291250301</v>
       </c>
       <c r="L11" t="n">
-        <v>598.9981372303104</v>
+        <v>598.9981372303102</v>
       </c>
       <c r="M11" t="n">
         <v>862.6140377103479</v>
@@ -5056,13 +5056,13 @@
         <v>1131.245262923652</v>
       </c>
       <c r="O11" t="n">
-        <v>1382.739131455148</v>
+        <v>1382.739131455147</v>
       </c>
       <c r="P11" t="n">
-        <v>1591.776917090911</v>
+        <v>1591.77691709091</v>
       </c>
       <c r="Q11" t="n">
-        <v>1740.927517189221</v>
+        <v>1740.92751718922</v>
       </c>
       <c r="R11" t="n">
         <v>1813.808303919614</v>
@@ -5071,22 +5071,22 @@
         <v>1749.253343642254</v>
       </c>
       <c r="T11" t="n">
-        <v>1535.975759145524</v>
+        <v>1749.253343642254</v>
       </c>
       <c r="U11" t="n">
-        <v>1277.760618769164</v>
+        <v>1749.253343642254</v>
       </c>
       <c r="V11" t="n">
-        <v>920.2712038954137</v>
+        <v>1749.253343642254</v>
       </c>
       <c r="W11" t="n">
-        <v>861.461800415032</v>
+        <v>1749.253343642254</v>
       </c>
       <c r="X11" t="n">
-        <v>861.461800415032</v>
+        <v>1749.253343642254</v>
       </c>
       <c r="Y11" t="n">
-        <v>456.1245303699224</v>
+        <v>1343.916073597144</v>
       </c>
     </row>
     <row r="12">
@@ -5108,28 +5108,28 @@
         <v>267.3889916489643</v>
       </c>
       <c r="F12" t="n">
-        <v>173.7431613318685</v>
+        <v>173.7431613318684</v>
       </c>
       <c r="G12" t="n">
-        <v>80.6241773300433</v>
+        <v>80.62417733004328</v>
       </c>
       <c r="H12" t="n">
-        <v>36.27616607839229</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="I12" t="n">
-        <v>75.26691519968661</v>
+        <v>75.26691519968659</v>
       </c>
       <c r="J12" t="n">
         <v>433.5238427951067</v>
       </c>
       <c r="K12" t="n">
-        <v>559.2924683663468</v>
+        <v>559.2924683663467</v>
       </c>
       <c r="L12" t="n">
-        <v>735.9313191969958</v>
+        <v>735.9313191969957</v>
       </c>
       <c r="M12" t="n">
-        <v>945.2060176780109</v>
+        <v>945.2060176780108</v>
       </c>
       <c r="N12" t="n">
         <v>1162.360999510327</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>112.4768981516335</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="C13" t="n">
-        <v>112.4768981516335</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="D13" t="n">
-        <v>112.4768981516335</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="E13" t="n">
-        <v>112.4768981516335</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="F13" t="n">
-        <v>112.4768981516335</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="G13" t="n">
-        <v>112.4768981516335</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="H13" t="n">
-        <v>112.4768981516335</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="I13" t="n">
-        <v>36.27616607839229</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="J13" t="n">
-        <v>70.15038753583899</v>
+        <v>148.0721041840598</v>
       </c>
       <c r="K13" t="n">
-        <v>138.6345353799612</v>
+        <v>463.838861142204</v>
       </c>
       <c r="L13" t="n">
-        <v>356.3700675499421</v>
+        <v>912.7564163623085</v>
       </c>
       <c r="M13" t="n">
-        <v>805.2876227700467</v>
+        <v>1010.809763939928</v>
       </c>
       <c r="N13" t="n">
-        <v>1254.205177990151</v>
+        <v>1107.808470031876</v>
       </c>
       <c r="O13" t="n">
-        <v>1703.122733210256</v>
+        <v>1556.72602525198</v>
       </c>
       <c r="P13" t="n">
-        <v>1773.863841351392</v>
+        <v>1773.863841351391</v>
       </c>
       <c r="Q13" t="n">
         <v>1813.808303919614</v>
       </c>
       <c r="R13" t="n">
-        <v>1802.007452933977</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="S13" t="n">
-        <v>1645.530066266138</v>
+        <v>1657.330917251774</v>
       </c>
       <c r="T13" t="n">
-        <v>1405.539232097735</v>
+        <v>1417.340083083371</v>
       </c>
       <c r="U13" t="n">
-        <v>1137.947434235545</v>
+        <v>1137.198381565876</v>
       </c>
       <c r="V13" t="n">
-        <v>856.2359668435734</v>
+        <v>855.4869141739048</v>
       </c>
       <c r="W13" t="n">
-        <v>581.3835630160863</v>
+        <v>580.6345103464178</v>
       </c>
       <c r="X13" t="n">
-        <v>338.8196664618915</v>
+        <v>338.0706137922228</v>
       </c>
       <c r="Y13" t="n">
-        <v>112.4768981516335</v>
+        <v>111.7278454819649</v>
       </c>
     </row>
     <row r="14">
@@ -5254,13 +5254,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>463.1768960650922</v>
+        <v>885.5457267455345</v>
       </c>
       <c r="C14" t="n">
-        <v>36.27616607839228</v>
+        <v>885.5457267455345</v>
       </c>
       <c r="D14" t="n">
-        <v>36.27616607839228</v>
+        <v>462.2531059305347</v>
       </c>
       <c r="E14" t="n">
         <v>36.27616607839228</v>
@@ -5275,10 +5275,10 @@
         <v>36.27616607839228</v>
       </c>
       <c r="I14" t="n">
-        <v>68.08893453872672</v>
+        <v>68.08893453872679</v>
       </c>
       <c r="J14" t="n">
-        <v>184.296341114908</v>
+        <v>184.2963411149079</v>
       </c>
       <c r="K14" t="n">
         <v>366.7061291250299</v>
@@ -5287,13 +5287,13 @@
         <v>598.9981372303102</v>
       </c>
       <c r="M14" t="n">
-        <v>862.6140377103484</v>
+        <v>862.6140377103482</v>
       </c>
       <c r="N14" t="n">
         <v>1131.245262923652</v>
       </c>
       <c r="O14" t="n">
-        <v>1382.739131455148</v>
+        <v>1382.739131455147</v>
       </c>
       <c r="P14" t="n">
         <v>1591.77691709091</v>
@@ -5305,25 +5305,25 @@
         <v>1813.808303919614</v>
       </c>
       <c r="S14" t="n">
-        <v>1813.808303919614</v>
+        <v>1749.253343642254</v>
       </c>
       <c r="T14" t="n">
-        <v>1813.808303919614</v>
+        <v>1749.253343642254</v>
       </c>
       <c r="U14" t="n">
-        <v>1645.851945275482</v>
+        <v>1491.038203265894</v>
       </c>
       <c r="V14" t="n">
-        <v>1288.362530401732</v>
+        <v>1133.548788392143</v>
       </c>
       <c r="W14" t="n">
-        <v>1288.362530401732</v>
+        <v>1133.548788392143</v>
       </c>
       <c r="X14" t="n">
-        <v>1288.362530401732</v>
+        <v>885.5457267455345</v>
       </c>
       <c r="Y14" t="n">
-        <v>883.0252603566223</v>
+        <v>885.5457267455345</v>
       </c>
     </row>
     <row r="15">
@@ -5360,13 +5360,13 @@
         <v>433.5238427951067</v>
       </c>
       <c r="K15" t="n">
-        <v>559.2924683663468</v>
+        <v>559.2924683663467</v>
       </c>
       <c r="L15" t="n">
-        <v>735.9313191969958</v>
+        <v>735.9313191969957</v>
       </c>
       <c r="M15" t="n">
-        <v>945.2060176780109</v>
+        <v>945.2060176780108</v>
       </c>
       <c r="N15" t="n">
         <v>1162.360999510327</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>879.8832665156085</v>
+        <v>586.0934991399686</v>
       </c>
       <c r="C16" t="n">
-        <v>707.9107033945245</v>
+        <v>414.1209360188845</v>
       </c>
       <c r="D16" t="n">
-        <v>544.5939305212952</v>
+        <v>414.1209360188845</v>
       </c>
       <c r="E16" t="n">
-        <v>378.3857246741487</v>
+        <v>414.1209360188845</v>
       </c>
       <c r="F16" t="n">
-        <v>206.5239504487091</v>
+        <v>242.259161793445</v>
       </c>
       <c r="G16" t="n">
-        <v>173.104676471574</v>
+        <v>76.78588676135095</v>
       </c>
       <c r="H16" t="n">
         <v>36.27616607839228</v>
@@ -5439,19 +5439,19 @@
         <v>148.0721041840598</v>
       </c>
       <c r="K16" t="n">
-        <v>463.8388611422041</v>
+        <v>463.838861142204</v>
       </c>
       <c r="L16" t="n">
-        <v>556.3346842424263</v>
+        <v>556.3346842424261</v>
       </c>
       <c r="M16" t="n">
-        <v>1005.252239462531</v>
+        <v>1005.25223946253</v>
       </c>
       <c r="N16" t="n">
-        <v>1102.250945554479</v>
+        <v>1454.169794682635</v>
       </c>
       <c r="O16" t="n">
-        <v>1390.366528636948</v>
+        <v>1703.122733210255</v>
       </c>
       <c r="P16" t="n">
         <v>1773.863841351391</v>
@@ -5466,22 +5466,22 @@
         <v>1813.808303919614</v>
       </c>
       <c r="T16" t="n">
-        <v>1813.808303919614</v>
+        <v>1573.817469751211</v>
       </c>
       <c r="U16" t="n">
-        <v>1813.808303919614</v>
+        <v>1293.675768233716</v>
       </c>
       <c r="V16" t="n">
-        <v>1813.808303919614</v>
+        <v>1293.675768233716</v>
       </c>
       <c r="W16" t="n">
-        <v>1538.955900092127</v>
+        <v>1018.823364406229</v>
       </c>
       <c r="X16" t="n">
-        <v>1296.392003537932</v>
+        <v>776.2594678520342</v>
       </c>
       <c r="Y16" t="n">
-        <v>1070.049235227674</v>
+        <v>776.2594678520342</v>
       </c>
     </row>
     <row r="17">
@@ -5491,40 +5491,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1813.808303919614</v>
+        <v>995.37257906885</v>
       </c>
       <c r="C17" t="n">
-        <v>1813.808303919614</v>
+        <v>568.4718490821501</v>
       </c>
       <c r="D17" t="n">
-        <v>1390.515683104614</v>
+        <v>568.4718490821501</v>
       </c>
       <c r="E17" t="n">
-        <v>964.5387432524716</v>
+        <v>438.8681156485927</v>
       </c>
       <c r="F17" t="n">
-        <v>539.4145614418718</v>
+        <v>438.8681156485927</v>
       </c>
       <c r="G17" t="n">
-        <v>316.2519252281125</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="H17" t="n">
         <v>36.27616607839228</v>
       </c>
       <c r="I17" t="n">
-        <v>68.08893453872669</v>
+        <v>68.08893453872679</v>
       </c>
       <c r="J17" t="n">
         <v>184.296341114908</v>
       </c>
       <c r="K17" t="n">
-        <v>366.70612912503</v>
+        <v>366.7061291250297</v>
       </c>
       <c r="L17" t="n">
-        <v>598.9981372303105</v>
+        <v>598.99813723031</v>
       </c>
       <c r="M17" t="n">
-        <v>862.6140377103482</v>
+        <v>862.6140377103477</v>
       </c>
       <c r="N17" t="n">
         <v>1131.245262923652</v>
@@ -5542,25 +5542,25 @@
         <v>1813.808303919614</v>
       </c>
       <c r="S17" t="n">
-        <v>1813.808303919614</v>
+        <v>1749.253343642254</v>
       </c>
       <c r="T17" t="n">
-        <v>1813.808303919614</v>
+        <v>1749.253343642254</v>
       </c>
       <c r="U17" t="n">
-        <v>1813.808303919614</v>
+        <v>1749.253343642254</v>
       </c>
       <c r="V17" t="n">
-        <v>1813.808303919614</v>
+        <v>1391.763928768503</v>
       </c>
       <c r="W17" t="n">
-        <v>1813.808303919614</v>
+        <v>995.37257906885</v>
       </c>
       <c r="X17" t="n">
-        <v>1813.808303919614</v>
+        <v>995.37257906885</v>
       </c>
       <c r="Y17" t="n">
-        <v>1813.808303919614</v>
+        <v>995.37257906885</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>593.4367873432374</v>
+        <v>593.4367873432373</v>
       </c>
       <c r="C18" t="n">
-        <v>475.9308838607421</v>
+        <v>475.930883860742</v>
       </c>
       <c r="D18" t="n">
-        <v>372.0909253760273</v>
+        <v>372.0909253760271</v>
       </c>
       <c r="E18" t="n">
-        <v>267.3889916489645</v>
+        <v>267.3889916489643</v>
       </c>
       <c r="F18" t="n">
-        <v>173.7431613318686</v>
+        <v>173.7431613318684</v>
       </c>
       <c r="G18" t="n">
-        <v>80.62417733004327</v>
+        <v>80.62417733004328</v>
       </c>
       <c r="H18" t="n">
         <v>36.27616607839228</v>
       </c>
       <c r="I18" t="n">
-        <v>51.80960935527475</v>
+        <v>75.26691519968659</v>
       </c>
       <c r="J18" t="n">
-        <v>117.9640444811038</v>
+        <v>433.5238427951067</v>
       </c>
       <c r="K18" t="n">
-        <v>243.7326700523438</v>
+        <v>559.2924683663467</v>
       </c>
       <c r="L18" t="n">
-        <v>692.6502252724482</v>
+        <v>735.9313191969957</v>
       </c>
       <c r="M18" t="n">
-        <v>901.9249237534632</v>
+        <v>945.2060176780108</v>
       </c>
       <c r="N18" t="n">
-        <v>1119.079905585779</v>
+        <v>1162.360999510327</v>
       </c>
       <c r="O18" t="n">
-        <v>1532.531802917784</v>
+        <v>1357.404666497814</v>
       </c>
       <c r="P18" t="n">
-        <v>1685.929917764136</v>
+        <v>1510.802781344166</v>
       </c>
       <c r="Q18" t="n">
-        <v>1780.360625738642</v>
+        <v>1674.905125453736</v>
       </c>
       <c r="R18" t="n">
-        <v>1813.808303919614</v>
+        <v>1813.808303919613</v>
       </c>
       <c r="S18" t="n">
-        <v>1749.847329510331</v>
+        <v>1749.84732951033</v>
       </c>
       <c r="T18" t="n">
-        <v>1611.735244555135</v>
+        <v>1611.735244555134</v>
       </c>
       <c r="U18" t="n">
-        <v>1427.028547670862</v>
+        <v>1427.028547670861</v>
       </c>
       <c r="V18" t="n">
-        <v>1222.055408810128</v>
+        <v>1222.055408810127</v>
       </c>
       <c r="W18" t="n">
         <v>1025.534031643345</v>
       </c>
       <c r="X18" t="n">
-        <v>862.0566854100077</v>
+        <v>862.0566854100076</v>
       </c>
       <c r="Y18" t="n">
-        <v>722.3637967633001</v>
+        <v>722.3637967633</v>
       </c>
     </row>
     <row r="19">
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>427.177326165944</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="C19" t="n">
-        <v>427.177326165944</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="D19" t="n">
-        <v>263.8605532927147</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="E19" t="n">
-        <v>263.8605532927147</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="F19" t="n">
-        <v>91.99877906727508</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="G19" t="n">
         <v>36.27616607839228</v>
@@ -5673,22 +5673,22 @@
         <v>36.27616607839228</v>
       </c>
       <c r="J19" t="n">
-        <v>70.15038753583897</v>
+        <v>148.0721041840598</v>
       </c>
       <c r="K19" t="n">
-        <v>297.4793645271714</v>
+        <v>463.838861142204</v>
       </c>
       <c r="L19" t="n">
-        <v>746.3969197472758</v>
+        <v>556.3346842424261</v>
       </c>
       <c r="M19" t="n">
-        <v>844.450267324895</v>
+        <v>1005.25223946253</v>
       </c>
       <c r="N19" t="n">
-        <v>941.4489734168429</v>
+        <v>1454.169794682635</v>
       </c>
       <c r="O19" t="n">
-        <v>1390.366528636947</v>
+        <v>1540.462922504959</v>
       </c>
       <c r="P19" t="n">
         <v>1773.863841351391</v>
@@ -5700,25 +5700,25 @@
         <v>1802.007452933977</v>
       </c>
       <c r="S19" t="n">
-        <v>1645.530066266137</v>
+        <v>1772.045206560267</v>
       </c>
       <c r="T19" t="n">
-        <v>1405.539232097734</v>
+        <v>1532.054372391864</v>
       </c>
       <c r="U19" t="n">
-        <v>1125.397530580239</v>
+        <v>1251.912670874369</v>
       </c>
       <c r="V19" t="n">
-        <v>843.6860631882676</v>
+        <v>970.2012034823979</v>
       </c>
       <c r="W19" t="n">
-        <v>843.6860631882676</v>
+        <v>695.3487996549109</v>
       </c>
       <c r="X19" t="n">
-        <v>843.6860631882676</v>
+        <v>452.784903100716</v>
       </c>
       <c r="Y19" t="n">
-        <v>617.3432948780096</v>
+        <v>226.4421347904579</v>
       </c>
     </row>
     <row r="20">
@@ -5728,46 +5728,46 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>922.4672147549938</v>
+        <v>112.1598553635073</v>
       </c>
       <c r="C20" t="n">
-        <v>922.4672147549938</v>
+        <v>112.1598553635073</v>
       </c>
       <c r="D20" t="n">
-        <v>922.4672147549938</v>
+        <v>112.1598553635073</v>
       </c>
       <c r="E20" t="n">
-        <v>922.4672147549938</v>
+        <v>112.1598553635073</v>
       </c>
       <c r="F20" t="n">
-        <v>497.3430329443941</v>
+        <v>112.1598553635073</v>
       </c>
       <c r="G20" t="n">
-        <v>94.75108337419368</v>
+        <v>112.1598553635073</v>
       </c>
       <c r="H20" t="n">
         <v>36.27616607839228</v>
       </c>
       <c r="I20" t="n">
-        <v>68.08893453872668</v>
+        <v>68.08893453872679</v>
       </c>
       <c r="J20" t="n">
         <v>184.296341114908</v>
       </c>
       <c r="K20" t="n">
-        <v>366.7061291250299</v>
+        <v>366.7061291250298</v>
       </c>
       <c r="L20" t="n">
-        <v>598.9981372303101</v>
+        <v>598.9981372303099</v>
       </c>
       <c r="M20" t="n">
-        <v>862.6140377103479</v>
+        <v>862.6140377103472</v>
       </c>
       <c r="N20" t="n">
-        <v>1131.245262923652</v>
+        <v>1131.245262923651</v>
       </c>
       <c r="O20" t="n">
-        <v>1382.739131455147</v>
+        <v>1382.739131455148</v>
       </c>
       <c r="P20" t="n">
         <v>1591.77691709091</v>
@@ -5779,25 +5779,25 @@
         <v>1813.808303919614</v>
       </c>
       <c r="S20" t="n">
-        <v>1813.808303919614</v>
+        <v>1749.253343642254</v>
       </c>
       <c r="T20" t="n">
-        <v>1600.530719422884</v>
+        <v>1535.975759145523</v>
       </c>
       <c r="U20" t="n">
-        <v>1342.315579046524</v>
+        <v>1277.760618769164</v>
       </c>
       <c r="V20" t="n">
-        <v>1342.315579046524</v>
+        <v>920.2712038954132</v>
       </c>
       <c r="W20" t="n">
-        <v>1342.315579046524</v>
+        <v>523.8798541957601</v>
       </c>
       <c r="X20" t="n">
-        <v>1342.315579046524</v>
+        <v>112.1598553635073</v>
       </c>
       <c r="Y20" t="n">
-        <v>1342.315579046524</v>
+        <v>112.1598553635073</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>593.4367873432373</v>
+        <v>593.4367873432374</v>
       </c>
       <c r="C21" t="n">
-        <v>475.930883860742</v>
+        <v>475.9308838607421</v>
       </c>
       <c r="D21" t="n">
-        <v>372.0909253760271</v>
+        <v>372.0909253760273</v>
       </c>
       <c r="E21" t="n">
-        <v>267.3889916489643</v>
+        <v>267.3889916489645</v>
       </c>
       <c r="F21" t="n">
-        <v>173.7431613318684</v>
+        <v>173.7431613318686</v>
       </c>
       <c r="G21" t="n">
-        <v>80.62417733004328</v>
+        <v>80.62417733004327</v>
       </c>
       <c r="H21" t="n">
         <v>36.27616607839228</v>
       </c>
       <c r="I21" t="n">
-        <v>75.26691519968659</v>
+        <v>75.26691519968658</v>
       </c>
       <c r="J21" t="n">
-        <v>141.4213503255156</v>
+        <v>433.5238427951066</v>
       </c>
       <c r="K21" t="n">
-        <v>267.1899758967556</v>
+        <v>559.2924683663466</v>
       </c>
       <c r="L21" t="n">
-        <v>443.8288267274046</v>
+        <v>735.9313191969954</v>
       </c>
       <c r="M21" t="n">
-        <v>653.1035252084196</v>
+        <v>1014.877653813076</v>
       </c>
       <c r="N21" t="n">
-        <v>870.2585070407358</v>
+        <v>1232.032635645392</v>
       </c>
       <c r="O21" t="n">
-        <v>1319.17606226084</v>
+        <v>1427.076302632878</v>
       </c>
       <c r="P21" t="n">
-        <v>1472.574177107193</v>
+        <v>1580.474417479231</v>
       </c>
       <c r="Q21" t="n">
-        <v>1674.905125453736</v>
+        <v>1674.905125453737</v>
       </c>
       <c r="R21" t="n">
-        <v>1813.808303919613</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="S21" t="n">
-        <v>1749.84732951033</v>
+        <v>1749.847329510331</v>
       </c>
       <c r="T21" t="n">
-        <v>1611.735244555134</v>
+        <v>1611.735244555135</v>
       </c>
       <c r="U21" t="n">
-        <v>1427.028547670861</v>
+        <v>1427.028547670862</v>
       </c>
       <c r="V21" t="n">
-        <v>1222.055408810127</v>
+        <v>1222.055408810128</v>
       </c>
       <c r="W21" t="n">
         <v>1025.534031643345</v>
       </c>
       <c r="X21" t="n">
-        <v>862.0566854100076</v>
+        <v>862.0566854100077</v>
       </c>
       <c r="Y21" t="n">
-        <v>722.3637967633</v>
+        <v>722.3637967633001</v>
       </c>
     </row>
     <row r="22">
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1011.937267570567</v>
+        <v>306.2292466205049</v>
       </c>
       <c r="C22" t="n">
-        <v>839.9647044494834</v>
+        <v>134.2566834994209</v>
       </c>
       <c r="D22" t="n">
-        <v>676.6479315762541</v>
+        <v>134.2566834994209</v>
       </c>
       <c r="E22" t="n">
-        <v>510.4397257291076</v>
+        <v>134.2566834994209</v>
       </c>
       <c r="F22" t="n">
-        <v>338.577951503668</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="G22" t="n">
-        <v>173.104676471574</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="H22" t="n">
         <v>36.27616607839228</v>
@@ -5913,49 +5913,49 @@
         <v>148.0721041840598</v>
       </c>
       <c r="K22" t="n">
-        <v>216.556252028182</v>
+        <v>463.838861142204</v>
       </c>
       <c r="L22" t="n">
-        <v>309.0520751284041</v>
+        <v>912.7564163623085</v>
       </c>
       <c r="M22" t="n">
-        <v>757.9696303485085</v>
+        <v>1361.673971582413</v>
       </c>
       <c r="N22" t="n">
-        <v>1206.887185568613</v>
+        <v>1458.672677674361</v>
       </c>
       <c r="O22" t="n">
-        <v>1655.804740788717</v>
+        <v>1544.965805496685</v>
       </c>
       <c r="P22" t="n">
-        <v>1726.545848929853</v>
+        <v>1622.490343973492</v>
       </c>
       <c r="Q22" t="n">
         <v>1813.808303919614</v>
       </c>
       <c r="R22" t="n">
-        <v>1813.808303919614</v>
+        <v>1802.007452933977</v>
       </c>
       <c r="S22" t="n">
-        <v>1813.808303919614</v>
+        <v>1802.007452933977</v>
       </c>
       <c r="T22" t="n">
-        <v>1710.157471984862</v>
+        <v>1802.007452933977</v>
       </c>
       <c r="U22" t="n">
-        <v>1710.157471984862</v>
+        <v>1521.865751416482</v>
       </c>
       <c r="V22" t="n">
-        <v>1428.446004592891</v>
+        <v>1240.15428402451</v>
       </c>
       <c r="W22" t="n">
-        <v>1428.446004592891</v>
+        <v>965.3018801970234</v>
       </c>
       <c r="X22" t="n">
-        <v>1428.446004592891</v>
+        <v>722.7379836428285</v>
       </c>
       <c r="Y22" t="n">
-        <v>1202.103236282633</v>
+        <v>496.3952153325705</v>
       </c>
     </row>
     <row r="23">
@@ -5965,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1999.748499316061</v>
+        <v>1749.434667213146</v>
       </c>
       <c r="C23" t="n">
-        <v>1999.748499316061</v>
+        <v>1322.533937226446</v>
       </c>
       <c r="D23" t="n">
-        <v>1576.455878501061</v>
+        <v>899.241316411446</v>
       </c>
       <c r="E23" t="n">
-        <v>1150.478938648919</v>
+        <v>473.2643765593035</v>
       </c>
       <c r="F23" t="n">
-        <v>725.3547568383187</v>
+        <v>48.14019474870373</v>
       </c>
       <c r="G23" t="n">
-        <v>323.2390129063086</v>
+        <v>48.14019474870373</v>
       </c>
       <c r="H23" t="n">
         <v>48.14019474870373</v>
       </c>
       <c r="I23" t="n">
-        <v>97.94653860982544</v>
+        <v>97.94653860982552</v>
       </c>
       <c r="J23" t="n">
         <v>253.7669980404929</v>
       </c>
       <c r="K23" t="n">
-        <v>495.5464836548662</v>
+        <v>495.5464836548661</v>
       </c>
       <c r="L23" t="n">
-        <v>801.4918514659956</v>
+        <v>801.4918514659955</v>
       </c>
       <c r="M23" t="n">
         <v>1147.061306101886</v>
@@ -6019,22 +6019,22 @@
         <v>2407.009737435186</v>
       </c>
       <c r="T23" t="n">
-        <v>2195.816743119633</v>
+        <v>2407.009737435186</v>
       </c>
       <c r="U23" t="n">
-        <v>1999.748499316061</v>
+        <v>2407.009737435186</v>
       </c>
       <c r="V23" t="n">
-        <v>1999.748499316061</v>
+        <v>2407.009737435186</v>
       </c>
       <c r="W23" t="n">
-        <v>1999.748499316061</v>
+        <v>2407.009737435186</v>
       </c>
       <c r="X23" t="n">
-        <v>1999.748499316061</v>
+        <v>2407.009737435186</v>
       </c>
       <c r="Y23" t="n">
-        <v>1999.748499316061</v>
+        <v>2169.283031504676</v>
       </c>
     </row>
     <row r="24">
@@ -6068,28 +6068,28 @@
         <v>72.27152641483853</v>
       </c>
       <c r="J24" t="n">
-        <v>234.7717962367441</v>
+        <v>162.0192244442197</v>
       </c>
       <c r="K24" t="n">
-        <v>400.8650659897807</v>
+        <v>328.1124941972564</v>
       </c>
       <c r="L24" t="n">
-        <v>631.725377293033</v>
+        <v>558.9728055005087</v>
       </c>
       <c r="M24" t="n">
-        <v>904.2739626845076</v>
+        <v>831.5213908919832</v>
       </c>
       <c r="N24" t="n">
-        <v>1186.377502936477</v>
+        <v>1113.624931143952</v>
       </c>
       <c r="O24" t="n">
-        <v>1440.836412147119</v>
+        <v>1368.083840354594</v>
       </c>
       <c r="P24" t="n">
-        <v>1641.920497017837</v>
+        <v>1569.167925225312</v>
       </c>
       <c r="Q24" t="n">
-        <v>1768.228013104547</v>
+        <v>1695.475441312022</v>
       </c>
       <c r="R24" t="n">
         <v>1817.180367468736</v>
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>589.9678758761165</v>
+        <v>669.9688502111824</v>
       </c>
       <c r="C25" t="n">
-        <v>589.9678758761165</v>
+        <v>669.9688502111824</v>
       </c>
       <c r="D25" t="n">
-        <v>589.9678758761165</v>
+        <v>584.3143074978234</v>
       </c>
       <c r="E25" t="n">
-        <v>589.9678758761165</v>
+        <v>418.106101650677</v>
       </c>
       <c r="F25" t="n">
         <v>418.106101650677</v>
@@ -6147,52 +6147,52 @@
         <v>48.14019474870373</v>
       </c>
       <c r="J25" t="n">
-        <v>174.7377877950434</v>
+        <v>96.81607114682251</v>
       </c>
       <c r="K25" t="n">
-        <v>500.0038770935591</v>
+        <v>189.6238849471989</v>
       </c>
       <c r="L25" t="n">
-        <v>1000.014511863865</v>
+        <v>688.4089666699886</v>
       </c>
       <c r="M25" t="n">
-        <v>1544.42125634278</v>
+        <v>1232.815711148903</v>
       </c>
       <c r="N25" t="n">
-        <v>1673.457542171944</v>
+        <v>1759.884919819948</v>
       </c>
       <c r="O25" t="n">
-        <v>1789.342560314131</v>
+        <v>2253.472262265338</v>
       </c>
       <c r="P25" t="n">
-        <v>2198.16084735424</v>
+        <v>2349.534344732139</v>
       </c>
       <c r="Q25" t="n">
         <v>2407.009737435186</v>
       </c>
       <c r="R25" t="n">
-        <v>2407.009737435186</v>
+        <v>2404.813544322731</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.254981002463</v>
+        <v>2404.813544322731</v>
       </c>
       <c r="T25" t="n">
-        <v>2015.176841779551</v>
+        <v>2165.735405099818</v>
       </c>
       <c r="U25" t="n">
-        <v>1735.046791686892</v>
+        <v>1885.605355007159</v>
       </c>
       <c r="V25" t="n">
-        <v>1453.335324294921</v>
+        <v>1603.893887615188</v>
       </c>
       <c r="W25" t="n">
-        <v>1178.482920467434</v>
+        <v>1329.041483787701</v>
       </c>
       <c r="X25" t="n">
-        <v>935.9190239132387</v>
+        <v>1086.477587233506</v>
       </c>
       <c r="Y25" t="n">
-        <v>709.5762556029807</v>
+        <v>860.1348189232481</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>471.4328155637035</v>
+        <v>1580.150284320579</v>
       </c>
       <c r="C26" t="n">
-        <v>471.4328155637035</v>
+        <v>1153.24955433388</v>
       </c>
       <c r="D26" t="n">
-        <v>48.14019474870373</v>
+        <v>1153.24955433388</v>
       </c>
       <c r="E26" t="n">
-        <v>48.14019474870373</v>
+        <v>727.2726144817372</v>
       </c>
       <c r="F26" t="n">
-        <v>48.14019474870373</v>
+        <v>302.1484326711374</v>
       </c>
       <c r="G26" t="n">
-        <v>48.14019474870373</v>
+        <v>302.1484326711374</v>
       </c>
       <c r="H26" t="n">
-        <v>48.14019474870373</v>
+        <v>48.14019474870374</v>
       </c>
       <c r="I26" t="n">
         <v>97.94653860982544</v>
@@ -6241,37 +6241,37 @@
         <v>1498.972179657087</v>
       </c>
       <c r="O26" t="n">
-        <v>1829.104658585039</v>
+        <v>1829.10465858504</v>
       </c>
       <c r="P26" t="n">
-        <v>2105.258678825625</v>
+        <v>2105.258678825626</v>
       </c>
       <c r="Q26" t="n">
-        <v>2304.810775987985</v>
+        <v>2304.810775987986</v>
       </c>
       <c r="R26" t="n">
-        <v>2407.009737435186</v>
+        <v>2407.009737435187</v>
       </c>
       <c r="S26" t="n">
-        <v>2353.306313138085</v>
+        <v>2407.009737435187</v>
       </c>
       <c r="T26" t="n">
-        <v>2142.113318822532</v>
+        <v>2195.816743119634</v>
       </c>
       <c r="U26" t="n">
-        <v>1883.936274897227</v>
+        <v>1937.63969919433</v>
       </c>
       <c r="V26" t="n">
-        <v>1526.446860023477</v>
+        <v>1580.150284320579</v>
       </c>
       <c r="W26" t="n">
-        <v>1130.055510323824</v>
+        <v>1580.150284320579</v>
       </c>
       <c r="X26" t="n">
-        <v>718.335511491571</v>
+        <v>1580.150284320579</v>
       </c>
       <c r="Y26" t="n">
-        <v>471.4328155637035</v>
+        <v>1580.150284320579</v>
       </c>
     </row>
     <row r="27">
@@ -6299,34 +6299,34 @@
         <v>90.0274470588021</v>
       </c>
       <c r="H27" t="n">
-        <v>48.14019474870373</v>
+        <v>48.14019474870374</v>
       </c>
       <c r="I27" t="n">
-        <v>72.27152641483853</v>
+        <v>95.7288322592504</v>
       </c>
       <c r="J27" t="n">
-        <v>162.0192244442197</v>
+        <v>185.4765302886316</v>
       </c>
       <c r="K27" t="n">
-        <v>400.8650659897807</v>
+        <v>351.5698000416682</v>
       </c>
       <c r="L27" t="n">
-        <v>631.725377293033</v>
+        <v>582.4301113449205</v>
       </c>
       <c r="M27" t="n">
-        <v>904.2739626845076</v>
+        <v>854.978696736395</v>
       </c>
       <c r="N27" t="n">
-        <v>1186.377502936477</v>
+        <v>1137.082236988364</v>
       </c>
       <c r="O27" t="n">
-        <v>1440.836412147119</v>
+        <v>1391.541146199006</v>
       </c>
       <c r="P27" t="n">
-        <v>1641.920497017837</v>
+        <v>1592.625231069724</v>
       </c>
       <c r="Q27" t="n">
-        <v>1768.228013104547</v>
+        <v>1718.932747156434</v>
       </c>
       <c r="R27" t="n">
         <v>1817.180367468736</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>517.2140937784595</v>
+        <v>754.2331890197258</v>
       </c>
       <c r="C28" t="n">
-        <v>345.2415306573755</v>
+        <v>754.2331890197258</v>
       </c>
       <c r="D28" t="n">
-        <v>284.1253137761508</v>
+        <v>590.9164161464965</v>
       </c>
       <c r="E28" t="n">
-        <v>117.9171079290044</v>
+        <v>424.7082102993501</v>
       </c>
       <c r="F28" t="n">
-        <v>117.9171079290044</v>
+        <v>252.8464360739105</v>
       </c>
       <c r="G28" t="n">
-        <v>117.9171079290044</v>
+        <v>252.8464360739105</v>
       </c>
       <c r="H28" t="n">
-        <v>117.9171079290044</v>
+        <v>117.9171079290045</v>
       </c>
       <c r="I28" t="n">
-        <v>48.14019474870373</v>
+        <v>48.14019474870374</v>
       </c>
       <c r="J28" t="n">
-        <v>174.7377877950434</v>
+        <v>96.81607114682254</v>
       </c>
       <c r="K28" t="n">
-        <v>267.5456015954198</v>
+        <v>189.6238849471989</v>
       </c>
       <c r="L28" t="n">
-        <v>391.1673427745607</v>
+        <v>688.4089666699895</v>
       </c>
       <c r="M28" t="n">
-        <v>935.5740872534752</v>
+        <v>1232.815711148904</v>
       </c>
       <c r="N28" t="n">
-        <v>1462.64329592452</v>
+        <v>1759.884919819949</v>
       </c>
       <c r="O28" t="n">
-        <v>1956.23063836991</v>
+        <v>2253.472262265338</v>
       </c>
       <c r="P28" t="n">
-        <v>2198.16084735424</v>
+        <v>2349.53434473214</v>
       </c>
       <c r="Q28" t="n">
-        <v>2407.009737435186</v>
+        <v>2407.009737435187</v>
       </c>
       <c r="R28" t="n">
-        <v>2404.813544322731</v>
+        <v>2404.813544322732</v>
       </c>
       <c r="S28" t="n">
-        <v>2252.058787890008</v>
+        <v>2252.058787890009</v>
       </c>
       <c r="T28" t="n">
-        <v>2012.980648667095</v>
+        <v>2059.833775196296</v>
       </c>
       <c r="U28" t="n">
-        <v>1732.850598574436</v>
+        <v>1779.703725103637</v>
       </c>
       <c r="V28" t="n">
-        <v>1451.139131182465</v>
+        <v>1497.992257711666</v>
       </c>
       <c r="W28" t="n">
-        <v>1176.286727354978</v>
+        <v>1223.139853884179</v>
       </c>
       <c r="X28" t="n">
-        <v>933.7228308007831</v>
+        <v>980.5759573299838</v>
       </c>
       <c r="Y28" t="n">
-        <v>707.3800624905251</v>
+        <v>754.2331890197258</v>
       </c>
     </row>
     <row r="29">
@@ -6439,13 +6439,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2407.009737435186</v>
+        <v>1573.771559463918</v>
       </c>
       <c r="C29" t="n">
-        <v>1999.748499316061</v>
+        <v>1573.771559463918</v>
       </c>
       <c r="D29" t="n">
-        <v>1576.455878501061</v>
+        <v>1150.478938648919</v>
       </c>
       <c r="E29" t="n">
         <v>1150.478938648919</v>
@@ -6457,19 +6457,19 @@
         <v>323.2390129063086</v>
       </c>
       <c r="H29" t="n">
-        <v>48.14019474870373</v>
+        <v>48.14019474870374</v>
       </c>
       <c r="I29" t="n">
-        <v>97.9465386098255</v>
+        <v>97.94653860982552</v>
       </c>
       <c r="J29" t="n">
-        <v>253.7669980404924</v>
+        <v>253.7669980404929</v>
       </c>
       <c r="K29" t="n">
-        <v>495.5464836548658</v>
+        <v>495.5464836548663</v>
       </c>
       <c r="L29" t="n">
-        <v>801.4918514659953</v>
+        <v>801.4918514659958</v>
       </c>
       <c r="M29" t="n">
         <v>1147.061306101886</v>
@@ -6478,37 +6478,37 @@
         <v>1498.972179657087</v>
       </c>
       <c r="O29" t="n">
-        <v>1829.104658585039</v>
+        <v>1829.10465858504</v>
       </c>
       <c r="P29" t="n">
-        <v>2105.258678825625</v>
+        <v>2105.258678825626</v>
       </c>
       <c r="Q29" t="n">
-        <v>2304.810775987985</v>
+        <v>2304.810775987986</v>
       </c>
       <c r="R29" t="n">
-        <v>2407.009737435186</v>
+        <v>2407.009737435187</v>
       </c>
       <c r="S29" t="n">
-        <v>2407.009737435186</v>
+        <v>2353.306313138085</v>
       </c>
       <c r="T29" t="n">
-        <v>2407.009737435186</v>
+        <v>2353.306313138085</v>
       </c>
       <c r="U29" t="n">
-        <v>2407.009737435186</v>
+        <v>2351.109338629199</v>
       </c>
       <c r="V29" t="n">
-        <v>2407.009737435186</v>
+        <v>1993.619923755448</v>
       </c>
       <c r="W29" t="n">
-        <v>2407.009737435186</v>
+        <v>1993.619923755448</v>
       </c>
       <c r="X29" t="n">
-        <v>2407.009737435186</v>
+        <v>1993.619923755448</v>
       </c>
       <c r="Y29" t="n">
-        <v>2407.009737435186</v>
+        <v>1993.619923755448</v>
       </c>
     </row>
     <row r="30">
@@ -6536,28 +6536,28 @@
         <v>90.0274470588021</v>
       </c>
       <c r="H30" t="n">
-        <v>48.14019474870373</v>
+        <v>48.14019474870374</v>
       </c>
       <c r="I30" t="n">
-        <v>95.72883225925037</v>
+        <v>72.27152641483855</v>
       </c>
       <c r="J30" t="n">
-        <v>185.4765302886316</v>
+        <v>234.7717962367441</v>
       </c>
       <c r="K30" t="n">
-        <v>351.5698000416681</v>
+        <v>400.8650659897807</v>
       </c>
       <c r="L30" t="n">
-        <v>582.4301113449205</v>
+        <v>631.725377293033</v>
       </c>
       <c r="M30" t="n">
-        <v>854.978696736395</v>
+        <v>904.2739626845076</v>
       </c>
       <c r="N30" t="n">
-        <v>1137.082236988364</v>
+        <v>1186.377502936477</v>
       </c>
       <c r="O30" t="n">
-        <v>1391.541146199006</v>
+        <v>1440.836412147119</v>
       </c>
       <c r="P30" t="n">
         <v>1641.920497017837</v>
@@ -6597,31 +6597,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1091.465417717576</v>
+        <v>911.2431825465515</v>
       </c>
       <c r="C31" t="n">
-        <v>919.4928545964923</v>
+        <v>739.2706194254674</v>
       </c>
       <c r="D31" t="n">
-        <v>756.176081723263</v>
+        <v>575.9538465522381</v>
       </c>
       <c r="E31" t="n">
-        <v>589.9678758761165</v>
+        <v>520.1909626958159</v>
       </c>
       <c r="F31" t="n">
-        <v>418.106101650677</v>
+        <v>348.3291884703763</v>
       </c>
       <c r="G31" t="n">
-        <v>252.8464360739105</v>
+        <v>183.0695228936098</v>
       </c>
       <c r="H31" t="n">
-        <v>117.9171079290044</v>
+        <v>48.14019474870374</v>
       </c>
       <c r="I31" t="n">
-        <v>48.14019474870373</v>
+        <v>48.14019474870374</v>
       </c>
       <c r="J31" t="n">
-        <v>96.81607114682251</v>
+        <v>96.81607114682254</v>
       </c>
       <c r="K31" t="n">
         <v>189.6238849471989</v>
@@ -6639,34 +6639,34 @@
         <v>2253.472262265338</v>
       </c>
       <c r="P31" t="n">
-        <v>2349.534344732139</v>
+        <v>2349.53434473214</v>
       </c>
       <c r="Q31" t="n">
-        <v>2407.009737435186</v>
+        <v>2407.009737435187</v>
       </c>
       <c r="R31" t="n">
-        <v>2407.009737435186</v>
+        <v>2407.009737435187</v>
       </c>
       <c r="S31" t="n">
-        <v>2407.009737435186</v>
+        <v>2407.009737435187</v>
       </c>
       <c r="T31" t="n">
-        <v>2407.009737435186</v>
+        <v>2407.009737435187</v>
       </c>
       <c r="U31" t="n">
-        <v>2307.101922513553</v>
+        <v>2126.879687342528</v>
       </c>
       <c r="V31" t="n">
-        <v>2025.390455121582</v>
+        <v>1845.168219950557</v>
       </c>
       <c r="W31" t="n">
-        <v>1750.538051294095</v>
+        <v>1570.31581612307</v>
       </c>
       <c r="X31" t="n">
-        <v>1507.9741547399</v>
+        <v>1327.751919568875</v>
       </c>
       <c r="Y31" t="n">
-        <v>1281.631386429642</v>
+        <v>1101.409151258617</v>
       </c>
     </row>
     <row r="32">
@@ -6676,49 +6676,49 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2151.550411145156</v>
+        <v>2024.53348537075</v>
       </c>
       <c r="C32" t="n">
-        <v>1724.649681158456</v>
+        <v>1597.632755384051</v>
       </c>
       <c r="D32" t="n">
-        <v>1301.357060343456</v>
+        <v>1174.340134569051</v>
       </c>
       <c r="E32" t="n">
-        <v>875.3801204913136</v>
+        <v>748.3631947169084</v>
       </c>
       <c r="F32" t="n">
-        <v>450.2559386807139</v>
+        <v>323.2390129063086</v>
       </c>
       <c r="G32" t="n">
-        <v>48.14019474870374</v>
+        <v>323.2390129063086</v>
       </c>
       <c r="H32" t="n">
         <v>48.14019474870374</v>
       </c>
       <c r="I32" t="n">
-        <v>97.94653860982544</v>
+        <v>97.94653860982589</v>
       </c>
       <c r="J32" t="n">
-        <v>253.7669980404929</v>
+        <v>253.7669980404939</v>
       </c>
       <c r="K32" t="n">
-        <v>495.5464836548662</v>
+        <v>495.5464836548672</v>
       </c>
       <c r="L32" t="n">
-        <v>801.4918514659956</v>
+        <v>801.4918514659968</v>
       </c>
       <c r="M32" t="n">
-        <v>1147.061306101886</v>
+        <v>1147.061306101887</v>
       </c>
       <c r="N32" t="n">
-        <v>1498.972179657087</v>
+        <v>1498.972179657088</v>
       </c>
       <c r="O32" t="n">
         <v>1829.10465858504</v>
       </c>
       <c r="P32" t="n">
-        <v>2105.258678825626</v>
+        <v>2105.258678825627</v>
       </c>
       <c r="Q32" t="n">
         <v>2304.810775987986</v>
@@ -6727,25 +6727,25 @@
         <v>2407.009737435187</v>
       </c>
       <c r="S32" t="n">
-        <v>2407.009737435187</v>
+        <v>2353.306313138085</v>
       </c>
       <c r="T32" t="n">
-        <v>2407.009737435187</v>
+        <v>2142.113318822533</v>
       </c>
       <c r="U32" t="n">
-        <v>2407.009737435187</v>
+        <v>2142.113318822533</v>
       </c>
       <c r="V32" t="n">
-        <v>2407.009737435187</v>
+        <v>2024.53348537075</v>
       </c>
       <c r="W32" t="n">
-        <v>2407.009737435187</v>
+        <v>2024.53348537075</v>
       </c>
       <c r="X32" t="n">
-        <v>2407.009737435187</v>
+        <v>2024.53348537075</v>
       </c>
       <c r="Y32" t="n">
-        <v>2407.009737435187</v>
+        <v>2024.53348537075</v>
       </c>
     </row>
     <row r="33">
@@ -6776,7 +6776,7 @@
         <v>48.14019474870374</v>
       </c>
       <c r="I33" t="n">
-        <v>72.27152641483855</v>
+        <v>95.7288322592504</v>
       </c>
       <c r="J33" t="n">
         <v>234.7717962367441</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>517.2140937784604</v>
+        <v>928.1486448443471</v>
       </c>
       <c r="C34" t="n">
-        <v>345.2415306573764</v>
+        <v>756.1760817232631</v>
       </c>
       <c r="D34" t="n">
-        <v>214.3484005958502</v>
+        <v>756.1760817232631</v>
       </c>
       <c r="E34" t="n">
-        <v>48.14019474870374</v>
+        <v>589.9678758761166</v>
       </c>
       <c r="F34" t="n">
-        <v>48.14019474870374</v>
+        <v>418.106101650677</v>
       </c>
       <c r="G34" t="n">
-        <v>48.14019474870374</v>
+        <v>252.8464360739105</v>
       </c>
       <c r="H34" t="n">
-        <v>48.14019474870374</v>
+        <v>117.9171079290045</v>
       </c>
       <c r="I34" t="n">
         <v>48.14019474870374</v>
@@ -6864,46 +6864,46 @@
         <v>189.6238849471989</v>
       </c>
       <c r="L34" t="n">
-        <v>313.2456261263399</v>
+        <v>688.4089666699895</v>
       </c>
       <c r="M34" t="n">
-        <v>857.6523706052544</v>
+        <v>1232.815711148904</v>
       </c>
       <c r="N34" t="n">
-        <v>1384.721579276299</v>
+        <v>1759.884919819949</v>
       </c>
       <c r="O34" t="n">
-        <v>1878.308921721689</v>
+        <v>2253.472262265338</v>
       </c>
       <c r="P34" t="n">
-        <v>2198.160847354241</v>
+        <v>2349.53434473214</v>
       </c>
       <c r="Q34" t="n">
         <v>2407.009737435187</v>
       </c>
       <c r="R34" t="n">
-        <v>2404.813544322732</v>
+        <v>2407.009737435187</v>
       </c>
       <c r="S34" t="n">
-        <v>2252.058787890009</v>
+        <v>2254.254981002464</v>
       </c>
       <c r="T34" t="n">
-        <v>2012.980648667096</v>
+        <v>2015.176841779552</v>
       </c>
       <c r="U34" t="n">
-        <v>1732.850598574437</v>
+        <v>1735.046791686893</v>
       </c>
       <c r="V34" t="n">
-        <v>1451.139131182466</v>
+        <v>1453.335324294922</v>
       </c>
       <c r="W34" t="n">
-        <v>1176.286727354979</v>
+        <v>1178.482920467434</v>
       </c>
       <c r="X34" t="n">
-        <v>933.722830800784</v>
+        <v>1118.314613556413</v>
       </c>
       <c r="Y34" t="n">
-        <v>707.380062490526</v>
+        <v>1118.314613556413</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1347.10407376512</v>
+        <v>461.8322863442353</v>
       </c>
       <c r="C35" t="n">
-        <v>1347.10407376512</v>
+        <v>461.8322863442353</v>
       </c>
       <c r="D35" t="n">
-        <v>1347.10407376512</v>
+        <v>450.2559386807139</v>
       </c>
       <c r="E35" t="n">
-        <v>1150.478938648919</v>
+        <v>450.2559386807139</v>
       </c>
       <c r="F35" t="n">
-        <v>725.3547568383187</v>
+        <v>450.2559386807139</v>
       </c>
       <c r="G35" t="n">
-        <v>323.2390129063086</v>
+        <v>48.14019474870374</v>
       </c>
       <c r="H35" t="n">
         <v>48.14019474870374</v>
@@ -6964,25 +6964,25 @@
         <v>2407.009737435187</v>
       </c>
       <c r="S35" t="n">
-        <v>2407.009737435187</v>
+        <v>2353.306313138085</v>
       </c>
       <c r="T35" t="n">
-        <v>2407.009737435187</v>
+        <v>2353.306313138085</v>
       </c>
       <c r="U35" t="n">
-        <v>2148.832693509883</v>
+        <v>2095.129269212781</v>
       </c>
       <c r="V35" t="n">
-        <v>2148.832693509883</v>
+        <v>2095.129269212781</v>
       </c>
       <c r="W35" t="n">
-        <v>1752.441343810229</v>
+        <v>1698.737919513128</v>
       </c>
       <c r="X35" t="n">
-        <v>1752.441343810229</v>
+        <v>1287.017920680875</v>
       </c>
       <c r="Y35" t="n">
-        <v>1347.10407376512</v>
+        <v>881.6806506357653</v>
       </c>
     </row>
     <row r="36">
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1091.465417717576</v>
+        <v>754.3439779153703</v>
       </c>
       <c r="C37" t="n">
-        <v>919.4928545964924</v>
+        <v>582.3714147942862</v>
       </c>
       <c r="D37" t="n">
-        <v>756.1760817232631</v>
+        <v>419.0546419210569</v>
       </c>
       <c r="E37" t="n">
-        <v>589.9678758761166</v>
+        <v>252.8464360739105</v>
       </c>
       <c r="F37" t="n">
-        <v>418.106101650677</v>
+        <v>252.8464360739105</v>
       </c>
       <c r="G37" t="n">
         <v>252.8464360739105</v>
@@ -7095,22 +7095,22 @@
         <v>48.14019474870374</v>
       </c>
       <c r="J37" t="n">
-        <v>96.81607114682254</v>
+        <v>174.7377877950434</v>
       </c>
       <c r="K37" t="n">
-        <v>436.906494061221</v>
+        <v>435.0577573636645</v>
       </c>
       <c r="L37" t="n">
-        <v>560.5282352403619</v>
+        <v>935.0683921339703</v>
       </c>
       <c r="M37" t="n">
-        <v>1104.934979719276</v>
+        <v>1479.475136612885</v>
       </c>
       <c r="N37" t="n">
-        <v>1295.755217868742</v>
+        <v>1608.511422442049</v>
       </c>
       <c r="O37" t="n">
-        <v>1789.342560314132</v>
+        <v>2102.098764887439</v>
       </c>
       <c r="P37" t="n">
         <v>2198.160847354241</v>
@@ -7125,22 +7125,22 @@
         <v>2407.009737435187</v>
       </c>
       <c r="T37" t="n">
-        <v>2407.009737435187</v>
+        <v>2250.110532804006</v>
       </c>
       <c r="U37" t="n">
-        <v>2307.101922513553</v>
+        <v>1969.980482711347</v>
       </c>
       <c r="V37" t="n">
-        <v>2025.390455121582</v>
+        <v>1688.269015319376</v>
       </c>
       <c r="W37" t="n">
-        <v>1750.538051294095</v>
+        <v>1413.416611491889</v>
       </c>
       <c r="X37" t="n">
-        <v>1507.9741547399</v>
+        <v>1170.852714937694</v>
       </c>
       <c r="Y37" t="n">
-        <v>1281.631386429642</v>
+        <v>944.509946627436</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1576.455878501061</v>
+        <v>1464.087910605698</v>
       </c>
       <c r="C38" t="n">
-        <v>1576.455878501061</v>
+        <v>1464.087910605698</v>
       </c>
       <c r="D38" t="n">
-        <v>1576.455878501061</v>
+        <v>1174.340134569051</v>
       </c>
       <c r="E38" t="n">
-        <v>1150.478938648919</v>
+        <v>748.3631947169084</v>
       </c>
       <c r="F38" t="n">
-        <v>725.3547568383187</v>
+        <v>323.2390129063086</v>
       </c>
       <c r="G38" t="n">
         <v>323.2390129063086</v>
@@ -7171,28 +7171,28 @@
         <v>48.14019474870374</v>
       </c>
       <c r="I38" t="n">
-        <v>97.94653860982589</v>
+        <v>97.94653860982544</v>
       </c>
       <c r="J38" t="n">
-        <v>253.7669980404939</v>
+        <v>253.7669980404926</v>
       </c>
       <c r="K38" t="n">
-        <v>495.5464836548672</v>
+        <v>495.5464836548661</v>
       </c>
       <c r="L38" t="n">
-        <v>801.4918514659968</v>
+        <v>801.4918514659955</v>
       </c>
       <c r="M38" t="n">
-        <v>1147.061306101887</v>
+        <v>1147.061306101886</v>
       </c>
       <c r="N38" t="n">
-        <v>1498.972179657088</v>
+        <v>1498.972179657087</v>
       </c>
       <c r="O38" t="n">
-        <v>1829.10465858504</v>
+        <v>1829.104658585039</v>
       </c>
       <c r="P38" t="n">
-        <v>2105.258678825627</v>
+        <v>2105.258678825626</v>
       </c>
       <c r="Q38" t="n">
         <v>2304.810775987986</v>
@@ -7201,25 +7201,25 @@
         <v>2407.009737435187</v>
       </c>
       <c r="S38" t="n">
-        <v>2407.009737435187</v>
+        <v>2353.306313138085</v>
       </c>
       <c r="T38" t="n">
-        <v>2407.009737435187</v>
+        <v>2142.113318822533</v>
       </c>
       <c r="U38" t="n">
-        <v>2148.832693509883</v>
+        <v>1883.936274897228</v>
       </c>
       <c r="V38" t="n">
-        <v>1791.343278636132</v>
+        <v>1883.936274897228</v>
       </c>
       <c r="W38" t="n">
-        <v>1576.455878501061</v>
+        <v>1883.936274897228</v>
       </c>
       <c r="X38" t="n">
-        <v>1576.455878501061</v>
+        <v>1883.936274897228</v>
       </c>
       <c r="Y38" t="n">
-        <v>1576.455878501061</v>
+        <v>1883.936274897228</v>
       </c>
     </row>
     <row r="39">
@@ -7308,40 +7308,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>517.2140937784604</v>
+        <v>1081.251804375546</v>
       </c>
       <c r="C40" t="n">
-        <v>385.2616345509098</v>
+        <v>909.2792412544625</v>
       </c>
       <c r="D40" t="n">
-        <v>385.2616345509098</v>
+        <v>745.9624683812332</v>
       </c>
       <c r="E40" t="n">
-        <v>385.2616345509098</v>
+        <v>579.7542625340867</v>
       </c>
       <c r="F40" t="n">
-        <v>213.3998603254702</v>
+        <v>407.8924883086471</v>
       </c>
       <c r="G40" t="n">
-        <v>48.14019474870374</v>
+        <v>242.6328227318806</v>
       </c>
       <c r="H40" t="n">
-        <v>48.14019474870374</v>
+        <v>117.9171079290045</v>
       </c>
       <c r="I40" t="n">
         <v>48.14019474870374</v>
       </c>
       <c r="J40" t="n">
-        <v>174.1025810880645</v>
+        <v>174.7377877950434</v>
       </c>
       <c r="K40" t="n">
-        <v>514.193004002463</v>
+        <v>514.8282107094419</v>
       </c>
       <c r="L40" t="n">
-        <v>637.8147451816039</v>
+        <v>1014.838845479748</v>
       </c>
       <c r="M40" t="n">
-        <v>768.6860091976968</v>
+        <v>1166.718932039577</v>
       </c>
       <c r="N40" t="n">
         <v>1295.755217868742</v>
@@ -7356,28 +7356,28 @@
         <v>2407.009737435187</v>
       </c>
       <c r="R40" t="n">
-        <v>2404.813544322732</v>
+        <v>2407.009737435187</v>
       </c>
       <c r="S40" t="n">
-        <v>2252.058787890009</v>
+        <v>2254.254981002464</v>
       </c>
       <c r="T40" t="n">
-        <v>2012.980648667096</v>
+        <v>2015.176841779552</v>
       </c>
       <c r="U40" t="n">
-        <v>1732.850598574437</v>
+        <v>2015.176841779552</v>
       </c>
       <c r="V40" t="n">
-        <v>1451.139131182466</v>
+        <v>2015.176841779552</v>
       </c>
       <c r="W40" t="n">
-        <v>1176.286727354979</v>
+        <v>1740.324437952065</v>
       </c>
       <c r="X40" t="n">
-        <v>933.722830800784</v>
+        <v>1497.76054139787</v>
       </c>
       <c r="Y40" t="n">
-        <v>707.380062490526</v>
+        <v>1271.417773087612</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1326.142046398146</v>
+        <v>748.5819211967967</v>
       </c>
       <c r="C41" t="n">
-        <v>899.241316411446</v>
+        <v>321.6811912100968</v>
       </c>
       <c r="D41" t="n">
-        <v>899.241316411446</v>
+        <v>321.6811912100968</v>
       </c>
       <c r="E41" t="n">
-        <v>473.2643765593035</v>
+        <v>321.6811912100968</v>
       </c>
       <c r="F41" t="n">
-        <v>48.14019474870374</v>
+        <v>321.6811912100968</v>
       </c>
       <c r="G41" t="n">
-        <v>48.14019474870374</v>
+        <v>321.6811912100968</v>
       </c>
       <c r="H41" t="n">
         <v>48.14019474870374</v>
@@ -7441,22 +7441,22 @@
         <v>2407.009737435187</v>
       </c>
       <c r="T41" t="n">
-        <v>2338.199854896854</v>
+        <v>2195.816743119634</v>
       </c>
       <c r="U41" t="n">
-        <v>2080.022810971549</v>
+        <v>1937.63969919433</v>
       </c>
       <c r="V41" t="n">
-        <v>1722.533396097799</v>
+        <v>1580.150284320579</v>
       </c>
       <c r="W41" t="n">
-        <v>1326.142046398146</v>
+        <v>1580.150284320579</v>
       </c>
       <c r="X41" t="n">
-        <v>1326.142046398146</v>
+        <v>1168.430285488327</v>
       </c>
       <c r="Y41" t="n">
-        <v>1326.142046398146</v>
+        <v>1168.430285488327</v>
       </c>
     </row>
     <row r="42">
@@ -7490,25 +7490,25 @@
         <v>72.27152641483855</v>
       </c>
       <c r="J42" t="n">
-        <v>162.0192244442197</v>
+        <v>234.7717962367441</v>
       </c>
       <c r="K42" t="n">
-        <v>328.1124941972564</v>
+        <v>400.8650659897807</v>
       </c>
       <c r="L42" t="n">
-        <v>558.9728055005087</v>
+        <v>631.725377293033</v>
       </c>
       <c r="M42" t="n">
-        <v>831.5213908919832</v>
+        <v>904.2739626845076</v>
       </c>
       <c r="N42" t="n">
-        <v>1113.624931143952</v>
+        <v>1186.377502936477</v>
       </c>
       <c r="O42" t="n">
-        <v>1368.083840354594</v>
+        <v>1440.836412147119</v>
       </c>
       <c r="P42" t="n">
-        <v>1569.167925225312</v>
+        <v>1641.920497017837</v>
       </c>
       <c r="Q42" t="n">
         <v>1768.228013104547</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1091.465417717576</v>
+        <v>855.4802986901292</v>
       </c>
       <c r="C43" t="n">
-        <v>919.4928545964924</v>
+        <v>683.5077355690452</v>
       </c>
       <c r="D43" t="n">
-        <v>756.1760817232631</v>
+        <v>520.1909626958159</v>
       </c>
       <c r="E43" t="n">
-        <v>589.9678758761166</v>
+        <v>520.1909626958159</v>
       </c>
       <c r="F43" t="n">
-        <v>418.106101650677</v>
+        <v>348.3291884703763</v>
       </c>
       <c r="G43" t="n">
-        <v>252.8464360739105</v>
+        <v>183.0695228936098</v>
       </c>
       <c r="H43" t="n">
-        <v>117.9171079290045</v>
+        <v>48.14019474870374</v>
       </c>
       <c r="I43" t="n">
         <v>48.14019474870374</v>
@@ -7572,19 +7572,19 @@
         <v>174.7377877950434</v>
       </c>
       <c r="K43" t="n">
-        <v>514.8282107094419</v>
+        <v>267.5456015954198</v>
       </c>
       <c r="L43" t="n">
-        <v>1014.838845479748</v>
+        <v>767.5562363657257</v>
       </c>
       <c r="M43" t="n">
-        <v>1559.245589958662</v>
+        <v>1311.96298084464</v>
       </c>
       <c r="N43" t="n">
-        <v>1986.213746745253</v>
+        <v>1839.032189515685</v>
       </c>
       <c r="O43" t="n">
-        <v>2102.098764887439</v>
+        <v>1954.917207657872</v>
       </c>
       <c r="P43" t="n">
         <v>2198.160847354241</v>
@@ -7593,28 +7593,28 @@
         <v>2407.009737435187</v>
       </c>
       <c r="R43" t="n">
-        <v>2407.009737435187</v>
+        <v>2404.813544322732</v>
       </c>
       <c r="S43" t="n">
-        <v>2407.009737435187</v>
+        <v>2252.058787890009</v>
       </c>
       <c r="T43" t="n">
-        <v>2407.009737435187</v>
+        <v>2071.116803486106</v>
       </c>
       <c r="U43" t="n">
-        <v>2307.101922513553</v>
+        <v>2071.116803486106</v>
       </c>
       <c r="V43" t="n">
-        <v>2025.390455121582</v>
+        <v>1789.405336094135</v>
       </c>
       <c r="W43" t="n">
-        <v>1750.538051294095</v>
+        <v>1514.552932266648</v>
       </c>
       <c r="X43" t="n">
-        <v>1507.9741547399</v>
+        <v>1271.989035712453</v>
       </c>
       <c r="Y43" t="n">
-        <v>1281.631386429642</v>
+        <v>1045.646267402195</v>
       </c>
     </row>
     <row r="44">
@@ -7624,16 +7624,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1987.161373143657</v>
+        <v>725.3547568383187</v>
       </c>
       <c r="C44" t="n">
-        <v>1560.260643156957</v>
+        <v>725.3547568383187</v>
       </c>
       <c r="D44" t="n">
-        <v>1560.260643156957</v>
+        <v>725.3547568383187</v>
       </c>
       <c r="E44" t="n">
-        <v>1134.283703304815</v>
+        <v>725.3547568383187</v>
       </c>
       <c r="F44" t="n">
         <v>725.3547568383187</v>
@@ -7645,25 +7645,25 @@
         <v>48.14019474870374</v>
       </c>
       <c r="I44" t="n">
-        <v>97.94653860982552</v>
+        <v>97.94653860982595</v>
       </c>
       <c r="J44" t="n">
-        <v>253.7669980404929</v>
+        <v>253.7669980404933</v>
       </c>
       <c r="K44" t="n">
-        <v>495.5464836548663</v>
+        <v>495.5464836548667</v>
       </c>
       <c r="L44" t="n">
-        <v>801.4918514659958</v>
+        <v>801.4918514659962</v>
       </c>
       <c r="M44" t="n">
         <v>1147.061306101886</v>
       </c>
       <c r="N44" t="n">
-        <v>1498.972179657087</v>
+        <v>1498.972179657088</v>
       </c>
       <c r="O44" t="n">
-        <v>1829.104658585039</v>
+        <v>1829.10465858504</v>
       </c>
       <c r="P44" t="n">
         <v>2105.258678825626</v>
@@ -7678,22 +7678,22 @@
         <v>2407.009737435187</v>
       </c>
       <c r="T44" t="n">
-        <v>2407.009737435187</v>
+        <v>2195.816743119634</v>
       </c>
       <c r="U44" t="n">
-        <v>2407.009737435187</v>
+        <v>1937.63969919433</v>
       </c>
       <c r="V44" t="n">
-        <v>2407.009737435187</v>
+        <v>1937.63969919433</v>
       </c>
       <c r="W44" t="n">
-        <v>2407.009737435187</v>
+        <v>1541.248349494677</v>
       </c>
       <c r="X44" t="n">
-        <v>2407.009737435187</v>
+        <v>1129.528350662424</v>
       </c>
       <c r="Y44" t="n">
-        <v>2407.009737435187</v>
+        <v>725.3547568383187</v>
       </c>
     </row>
     <row r="45">
@@ -7727,16 +7727,16 @@
         <v>95.7288322592504</v>
       </c>
       <c r="J45" t="n">
-        <v>185.4765302886316</v>
+        <v>234.7717962367441</v>
       </c>
       <c r="K45" t="n">
-        <v>351.5698000416682</v>
+        <v>400.8650659897807</v>
       </c>
       <c r="L45" t="n">
-        <v>582.4301113449205</v>
+        <v>631.725377293033</v>
       </c>
       <c r="M45" t="n">
-        <v>854.978696736395</v>
+        <v>904.2739626845076</v>
       </c>
       <c r="N45" t="n">
         <v>1186.377502936477</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>721.4995108156031</v>
+        <v>669.9688502111833</v>
       </c>
       <c r="C46" t="n">
-        <v>549.5269476945191</v>
+        <v>497.9962870900993</v>
       </c>
       <c r="D46" t="n">
-        <v>386.2101748212898</v>
+        <v>497.9962870900993</v>
       </c>
       <c r="E46" t="n">
-        <v>220.0019689741433</v>
+        <v>497.9962870900993</v>
       </c>
       <c r="F46" t="n">
-        <v>48.14019474870374</v>
+        <v>326.1345128646597</v>
       </c>
       <c r="G46" t="n">
-        <v>48.14019474870374</v>
+        <v>160.8748472878932</v>
       </c>
       <c r="H46" t="n">
-        <v>48.14019474870374</v>
+        <v>117.9171079290045</v>
       </c>
       <c r="I46" t="n">
         <v>48.14019474870374</v>
@@ -7818,10 +7818,10 @@
         <v>1145.71010949584</v>
       </c>
       <c r="N46" t="n">
-        <v>1608.511422442049</v>
+        <v>1295.755217868742</v>
       </c>
       <c r="O46" t="n">
-        <v>2102.098764887439</v>
+        <v>1789.342560314132</v>
       </c>
       <c r="P46" t="n">
         <v>2198.160847354241</v>
@@ -7833,25 +7833,25 @@
         <v>2404.813544322732</v>
       </c>
       <c r="S46" t="n">
-        <v>2252.058787890009</v>
+        <v>2404.813544322732</v>
       </c>
       <c r="T46" t="n">
-        <v>2012.980648667096</v>
+        <v>2165.735405099819</v>
       </c>
       <c r="U46" t="n">
-        <v>1732.850598574437</v>
+        <v>1885.60535500716</v>
       </c>
       <c r="V46" t="n">
-        <v>1451.139131182466</v>
+        <v>1603.893887615189</v>
       </c>
       <c r="W46" t="n">
-        <v>1176.286727354979</v>
+        <v>1329.041483787702</v>
       </c>
       <c r="X46" t="n">
-        <v>947.8422791258611</v>
+        <v>1086.477587233507</v>
       </c>
       <c r="Y46" t="n">
-        <v>721.4995108156031</v>
+        <v>860.134818923249</v>
       </c>
     </row>
   </sheetData>
@@ -8789,7 +8789,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.37539003541777</v>
+        <v>70.37539003541778</v>
       </c>
       <c r="R12" t="n">
         <v>106.5207073584907</v>
@@ -8847,25 +8847,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L13" t="n">
-        <v>126.50475663612</v>
+        <v>360.0219516362448</v>
       </c>
       <c r="M13" t="n">
-        <v>354.408290547965</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>355.473584977936</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>366.2873004017982</v>
+        <v>366.2873004017981</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>147.8754625841162</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -9026,7 +9026,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.37539003541777</v>
+        <v>70.37539003541778</v>
       </c>
       <c r="R15" t="n">
         <v>106.5207073584907</v>
@@ -9096,13 +9096,13 @@
         <v>354.4082905479649</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>355.4735849779359</v>
       </c>
       <c r="O16" t="n">
-        <v>203.861065919338</v>
+        <v>164.3028390962586</v>
       </c>
       <c r="P16" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -9239,16 +9239,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>275.0289943327833</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9257,16 +9257,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>220.6143740853712</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>70.37539003541778</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9321,25 +9321,25 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K19" t="n">
-        <v>160.4493223709194</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L19" t="n">
-        <v>360.0219516362447</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>354.4082905479649</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>355.4735849779359</v>
       </c>
       <c r="O19" t="n">
-        <v>366.2873004017981</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>315.9153581548562</v>
+        <v>164.3028390962585</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -9479,7 +9479,7 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9488,19 +9488,19 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>70.37539003541937</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>256.4382709420381</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>108.9901417899362</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>106.5207073584907</v>
@@ -9561,25 +9561,25 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>360.0219516362448</v>
       </c>
       <c r="M22" t="n">
-        <v>354.4082905479648</v>
+        <v>354.408290547965</v>
       </c>
       <c r="N22" t="n">
-        <v>355.4735849779358</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>366.2873004017981</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>6.851949834011123</v>
       </c>
       <c r="Q22" t="n">
-        <v>47.79595194094709</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9716,7 +9716,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>73.4874462550751</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9740,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>73.48744625507537</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9795,28 +9795,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>234.8063388870095</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>380.1908016072373</v>
+        <v>378.9528692360088</v>
       </c>
       <c r="M25" t="n">
         <v>417.7126065281028</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P25" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9950,13 +9950,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>73.4874462550751</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9977,7 +9977,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>49.7931979273864</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10032,13 +10032,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>378.9528692360097</v>
       </c>
       <c r="M28" t="n">
         <v>417.7126065281028</v>
@@ -10050,10 +10050,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P28" t="n">
-        <v>147.3415419368975</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10187,10 +10187,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>23.69424832768873</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>73.4874462550751</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10208,7 +10208,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>49.79319792738642</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -10284,7 +10284,7 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O31" t="n">
-        <v>380.2795669249361</v>
+        <v>380.2795669249371</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -10424,10 +10424,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>73.4874462550751</v>
+        <v>49.79319792738636</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10512,7 +10512,7 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>378.9528692360097</v>
       </c>
       <c r="M34" t="n">
         <v>417.7126065281028</v>
@@ -10524,10 +10524,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P34" t="n">
-        <v>226.050346632071</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10743,25 +10743,25 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K37" t="n">
-        <v>249.7804132464869</v>
+        <v>169.2041977457016</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M37" t="n">
         <v>417.7126065281028</v>
       </c>
       <c r="N37" t="n">
-        <v>62.40803264676819</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P37" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>152.9025226039384</v>
@@ -10980,19 +10980,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>78.0671817588303</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K40" t="n">
         <v>249.7804132464869</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>21.22103287246097</v>
       </c>
       <c r="N40" t="n">
-        <v>402.0534574160406</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
         <v>381.5174992961649</v>
@@ -11138,7 +11138,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>73.4874462550751</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11159,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>73.48744625507538</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -11220,7 +11220,7 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K43" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>380.1908016072373</v>
@@ -11229,13 +11229,13 @@
         <v>417.7126065281028</v>
       </c>
       <c r="N43" t="n">
-        <v>300.9412837953795</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>148.6682396258258</v>
       </c>
       <c r="Q43" t="n">
         <v>152.9025226039384</v>
@@ -11375,7 +11375,7 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>49.79319792738636</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11387,7 +11387,7 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>49.79319792738647</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -11466,13 +11466,13 @@
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>337.1363910273177</v>
+        <v>21.22103287246114</v>
       </c>
       <c r="O46" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q46" t="n">
         <v>152.9025226039384</v>
@@ -23257,22 +23257,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>369.2243547638817</v>
       </c>
       <c r="G11" t="n">
-        <v>398.5660300744983</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>277.176001558223</v>
@@ -23311,16 +23311,16 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>211.1448086517629</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>255.632988972596</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>334.2061267570787</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
         <v>407.6027988439302</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>113.5671464154081</v>
       </c>
       <c r="C13" t="n">
         <v>170.2528374898731</v>
@@ -23436,7 +23436,7 @@
         <v>135.4602252892499</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>75.43872475250879</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>11.68284247578064</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23472,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>12.42440461875191</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23494,16 +23494,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>420.8729399924937</v>
@@ -23545,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>63.90941067458682</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>211.1448086517629</v>
       </c>
       <c r="U14" t="n">
-        <v>89.35619391490579</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23560,10 +23560,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>162.0797678137873</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -23658,19 +23658,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>130.7334610444093</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>95.35560181312078</v>
       </c>
       <c r="I16" t="n">
         <v>75.43872475250879</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>11.68284247578063</v>
+        <v>11.68284247578064</v>
       </c>
       <c r="S16" t="n">
         <v>154.9126128011615</v>
       </c>
       <c r="T16" t="n">
-        <v>237.5909258267186</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3402845023203</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>278.8943527180514</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="17">
@@ -23734,22 +23734,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>293.4094743543991</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>177.6350202228766</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>277.176001558223</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>63.90941067458683</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>211.1448086517629</v>
@@ -23791,10 +23791,10 @@
         <v>255.632988972596</v>
       </c>
       <c r="V17" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>407.6027988439302</v>
@@ -23895,16 +23895,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>108.6531554227791</v>
+        <v>163.8185422817731</v>
       </c>
       <c r="H19" t="n">
         <v>135.4602252892499</v>
@@ -23940,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>125.2499888911888</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23952,10 +23952,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
         <v>422.6317226868329</v>
@@ -23980,13 +23980,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>398.5660300744983</v>
       </c>
       <c r="H20" t="n">
-        <v>219.2858334353796</v>
+        <v>202.0511491659591</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>63.90941067458683</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24028,13 +24028,13 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>401.2838973446586</v>
@@ -24132,19 +24132,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>73.1424442363669</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.8185422817731</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>135.4602252892499</v>
       </c>
       <c r="I22" t="n">
         <v>75.43872475250879</v>
@@ -24174,25 +24174,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>11.68284247578064</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>154.9126128011615</v>
       </c>
       <c r="T22" t="n">
-        <v>134.9766022113146</v>
+        <v>237.5909258267186</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3402845023203</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24205,10 +24205,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -24220,10 +24220,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>398.09458649269</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>272.3478299760288</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24259,10 +24259,10 @@
         <v>53.16639005413048</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>209.0810643723971</v>
       </c>
       <c r="U23" t="n">
-        <v>61.48771212051426</v>
+        <v>255.5952734860514</v>
       </c>
       <c r="V23" t="n">
         <v>353.914520725013</v>
@@ -24274,7 +24274,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y23" t="n">
-        <v>401.2838973446586</v>
+        <v>165.9344584734532</v>
       </c>
     </row>
     <row r="24">
@@ -24363,19 +24363,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>69.85201309534945</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>76.88560785827161</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>2.174231181331173</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>151.2272088683957</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24445,22 +24445,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C26" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E26" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>398.09458649269</v>
       </c>
       <c r="H26" t="n">
-        <v>272.3478299760288</v>
+        <v>20.87967443281957</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>53.16639005413048</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24505,13 +24505,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y26" t="n">
-        <v>156.8502283760697</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="27">
@@ -24600,25 +24600,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>101.1785504320846</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>163.6070689209988</v>
       </c>
       <c r="H28" t="n">
-        <v>133.580034863457</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24654,7 +24654,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>46.3845952639079</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24679,16 +24679,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>19.44309694889847</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24730,16 +24730,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>53.16639005413048</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>209.0810643723971</v>
       </c>
       <c r="U29" t="n">
-        <v>255.5952734860514</v>
+        <v>253.4202687222534</v>
       </c>
       <c r="V29" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>392.4274362026566</v>
@@ -24846,7 +24846,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>109.3408687708169</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>69.0791440484977</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24894,7 +24894,7 @@
         <v>236.6873578306832</v>
       </c>
       <c r="U31" t="n">
-        <v>178.4200128193156</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>162.7451476214834</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24931,10 +24931,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>398.09458649269</v>
       </c>
       <c r="H32" t="n">
-        <v>272.3478299760288</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24967,16 +24967,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>53.16639005413048</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>209.0810643723971</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>255.5952734860514</v>
       </c>
       <c r="V32" t="n">
-        <v>353.914520725013</v>
+        <v>237.5104856077486</v>
       </c>
       <c r="W32" t="n">
         <v>392.4274362026566</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>32.09940638358603</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>163.6070689209988</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>133.580034863457</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>69.0791440484977</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>2.174231181331173</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25140,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>180.5716337467414</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="35">
@@ -25153,25 +25153,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D35" t="n">
-        <v>419.0596946068497</v>
+        <v>407.5991104199635</v>
       </c>
       <c r="E35" t="n">
-        <v>227.0582866885819</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>272.3478299760288</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>53.16639005413048</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>209.0810643723971</v>
@@ -25219,7 +25219,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25323,10 +25323,10 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.6070689209988</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25365,10 +25365,10 @@
         <v>151.2272088683957</v>
       </c>
       <c r="T37" t="n">
-        <v>236.6873578306832</v>
+        <v>81.35714524581402</v>
       </c>
       <c r="U37" t="n">
-        <v>178.4200128193147</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25390,13 +25390,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
-        <v>419.0596946068497</v>
+        <v>132.2093963305688</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25405,7 +25405,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>398.09458649269</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -25441,19 +25441,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>53.16639005413048</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>209.0810643723971</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
-        <v>179.6889100689361</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
         <v>407.6027988439302</v>
@@ -25551,13 +25551,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>39.619902854598</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>133.580034863457</v>
+        <v>10.11147720860961</v>
       </c>
       <c r="I40" t="n">
-        <v>69.0791440484977</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>2.174231181331173</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25605,10 +25605,10 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3287495917327</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25636,16 +25636,16 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
         <v>398.09458649269</v>
       </c>
       <c r="H41" t="n">
-        <v>272.3478299760288</v>
+        <v>1.542243479249748</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25681,7 +25681,7 @@
         <v>53.16639005413048</v>
       </c>
       <c r="T41" t="n">
-        <v>140.9592806594474</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25690,10 +25690,10 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>401.2838973446586</v>
@@ -25794,7 +25794,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>69.0791440484977</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>2.174231181331173</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>151.2272088683957</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>236.6873578306832</v>
+        <v>57.5547932708192</v>
       </c>
       <c r="U43" t="n">
-        <v>178.4200128193147</v>
+        <v>277.3287495917327</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25864,19 +25864,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>16.03328299066254</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25918,22 +25918,22 @@
         <v>53.16639005413048</v>
       </c>
       <c r="T44" t="n">
-        <v>209.0810643723971</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>255.5952734860514</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>1.152039458794206</v>
       </c>
     </row>
     <row r="45">
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>163.6070689209988</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>133.580034863457</v>
+        <v>91.05187289815717</v>
       </c>
       <c r="I46" t="n">
-        <v>69.0791440484977</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>151.2272088683957</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>13.9782538418263</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>358244.203120189</v>
+        <v>358244.2031201887</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>358244.2031201888</v>
+        <v>358244.2031201889</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>358244.2031201887</v>
+        <v>358244.2031201888</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>358244.2031201886</v>
+        <v>358244.2031201888</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>422480.0478087422</v>
+        <v>422480.0478087423</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>422480.0478087424</v>
+        <v>422480.0478087423</v>
       </c>
     </row>
     <row r="14">
@@ -26322,7 +26322,7 @@
         <v>372951.0023362784</v>
       </c>
       <c r="E2" t="n">
-        <v>199900.0674504389</v>
+        <v>199900.0674504388</v>
       </c>
       <c r="F2" t="n">
         <v>199900.0674504389</v>
@@ -26331,13 +26331,13 @@
         <v>199900.0674504389</v>
       </c>
       <c r="H2" t="n">
-        <v>199900.0674504389</v>
+        <v>199900.0674504388</v>
       </c>
       <c r="I2" t="n">
         <v>239946.5728450129</v>
       </c>
       <c r="J2" t="n">
-        <v>239946.5728450129</v>
+        <v>239946.572845013</v>
       </c>
       <c r="K2" t="n">
         <v>239946.5728450129</v>
@@ -26346,7 +26346,7 @@
         <v>239946.572845013</v>
       </c>
       <c r="M2" t="n">
-        <v>239946.5728450129</v>
+        <v>239946.572845013</v>
       </c>
       <c r="N2" t="n">
         <v>239946.5728450129</v>
@@ -26371,7 +26371,7 @@
         <v>34741.06549511107</v>
       </c>
       <c r="D3" t="n">
-        <v>3620.625146095253</v>
+        <v>3620.625146095259</v>
       </c>
       <c r="E3" t="n">
         <v>447005.901670114</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>127712.252435172</v>
+        <v>127712.2524351721</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26423,28 +26423,28 @@
         <v>311247.9244810893</v>
       </c>
       <c r="D4" t="n">
-        <v>310232.2668504594</v>
+        <v>310232.2668504595</v>
       </c>
       <c r="E4" t="n">
-        <v>20344.99293571913</v>
+        <v>20344.99293571912</v>
       </c>
       <c r="F4" t="n">
         <v>20344.99293571912</v>
       </c>
       <c r="G4" t="n">
-        <v>20344.99293571913</v>
+        <v>20344.99293571912</v>
       </c>
       <c r="H4" t="n">
-        <v>20344.99293571912</v>
+        <v>20344.99293571915</v>
       </c>
       <c r="I4" t="n">
-        <v>16900.53530684303</v>
+        <v>16900.53530684304</v>
       </c>
       <c r="J4" t="n">
-        <v>16900.53530684303</v>
+        <v>16900.53530684304</v>
       </c>
       <c r="K4" t="n">
-        <v>16900.53530684303</v>
+        <v>16900.53530684304</v>
       </c>
       <c r="L4" t="n">
         <v>16900.53530684304</v>
@@ -26478,10 +26478,10 @@
         <v>34551.47122049312</v>
       </c>
       <c r="E5" t="n">
-        <v>36949.30081304156</v>
+        <v>36949.30081304155</v>
       </c>
       <c r="F5" t="n">
-        <v>36949.30081304156</v>
+        <v>36949.30081304155</v>
       </c>
       <c r="G5" t="n">
         <v>36949.30081304155</v>
@@ -26493,10 +26493,10 @@
         <v>48522.48328572914</v>
       </c>
       <c r="J5" t="n">
-        <v>48522.48328572914</v>
+        <v>48522.48328572915</v>
       </c>
       <c r="K5" t="n">
-        <v>48522.48328572914</v>
+        <v>48522.48328572915</v>
       </c>
       <c r="L5" t="n">
         <v>48522.48328572915</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>18539.06060055055</v>
+        <v>18517.34695905421</v>
       </c>
       <c r="C6" t="n">
-        <v>-7498.175277761882</v>
+        <v>-7519.858397853317</v>
       </c>
       <c r="D6" t="n">
-        <v>24546.63911923064</v>
+        <v>24524.95938126528</v>
       </c>
       <c r="E6" t="n">
-        <v>-304400.1279684357</v>
+        <v>-305087.3882251928</v>
       </c>
       <c r="F6" t="n">
-        <v>142605.7737016782</v>
+        <v>141918.5134449212</v>
       </c>
       <c r="G6" t="n">
-        <v>142605.7737016782</v>
+        <v>141918.5134449212</v>
       </c>
       <c r="H6" t="n">
-        <v>142605.7737016782</v>
+        <v>141918.5134449213</v>
       </c>
       <c r="I6" t="n">
-        <v>46811.30181726874</v>
+        <v>46278.06658125995</v>
       </c>
       <c r="J6" t="n">
-        <v>174523.5542524408</v>
+        <v>173990.3190164322</v>
       </c>
       <c r="K6" t="n">
-        <v>174523.5542524407</v>
+        <v>173990.319016432</v>
       </c>
       <c r="L6" t="n">
-        <v>174523.5542524408</v>
+        <v>173990.3190164321</v>
       </c>
       <c r="M6" t="n">
-        <v>61521.48310994488</v>
+        <v>60988.24787393627</v>
       </c>
       <c r="N6" t="n">
-        <v>174523.5542524407</v>
+        <v>173990.3190164321</v>
       </c>
       <c r="O6" t="n">
-        <v>174523.5542524407</v>
+        <v>173990.3190164321</v>
       </c>
       <c r="P6" t="n">
-        <v>174523.5542524407</v>
+        <v>173990.3190164321</v>
       </c>
     </row>
   </sheetData>
@@ -26755,7 +26755,7 @@
         <v>430.2483758469461</v>
       </c>
       <c r="H3" t="n">
-        <v>430.2483758469461</v>
+        <v>430.2483758469459</v>
       </c>
       <c r="I3" t="n">
         <v>547.5199668217575</v>
@@ -26798,25 +26798,25 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>453.4520759799036</v>
+        <v>453.4520759799035</v>
       </c>
       <c r="F4" t="n">
         <v>453.4520759799035</v>
       </c>
       <c r="G4" t="n">
-        <v>453.4520759799034</v>
+        <v>453.4520759799035</v>
       </c>
       <c r="H4" t="n">
-        <v>453.4520759799034</v>
+        <v>453.4520759799035</v>
       </c>
       <c r="I4" t="n">
         <v>601.7524343587966</v>
       </c>
       <c r="J4" t="n">
-        <v>601.7524343587966</v>
+        <v>601.7524343587968</v>
       </c>
       <c r="K4" t="n">
-        <v>601.7524343587966</v>
+        <v>601.7524343587968</v>
       </c>
       <c r="L4" t="n">
         <v>601.7524343587968</v>
@@ -26965,7 +26965,7 @@
         <v>38.15175619547406</v>
       </c>
       <c r="D3" t="n">
-        <v>4.22765758861398</v>
+        <v>4.227657588613987</v>
       </c>
       <c r="E3" t="n">
         <v>387.868962062858</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>117.2715909748114</v>
+        <v>117.2715909748117</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -31758,7 +31758,7 @@
         <v>17.71369318248255</v>
       </c>
       <c r="I11" t="n">
-        <v>66.68201209985686</v>
+        <v>66.68201209985685</v>
       </c>
       <c r="J11" t="n">
         <v>146.801178249406</v>
@@ -31773,7 +31773,7 @@
         <v>303.7099502530053</v>
       </c>
       <c r="N11" t="n">
-        <v>308.6242947670763</v>
+        <v>308.6242947670762</v>
       </c>
       <c r="O11" t="n">
         <v>291.4251699938981</v>
@@ -31782,16 +31782,16 @@
         <v>248.7246402301936</v>
       </c>
       <c r="Q11" t="n">
-        <v>186.781846421073</v>
+        <v>186.7818464210729</v>
       </c>
       <c r="R11" t="n">
-        <v>108.6496061881236</v>
+        <v>108.6496061881235</v>
       </c>
       <c r="S11" t="n">
-        <v>39.41421051100417</v>
+        <v>39.41421051100416</v>
       </c>
       <c r="T11" t="n">
-        <v>7.571506594050277</v>
+        <v>7.571506594050276</v>
       </c>
       <c r="U11" t="n">
         <v>0.1383713369558016</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9254399027651294</v>
+        <v>0.9254399027651293</v>
       </c>
       <c r="H12" t="n">
-        <v>8.937801166179016</v>
+        <v>8.937801166179014</v>
       </c>
       <c r="I12" t="n">
         <v>31.86273349432573</v>
@@ -31843,7 +31843,7 @@
         <v>87.43377607659498</v>
       </c>
       <c r="K12" t="n">
-        <v>149.4382495618587</v>
+        <v>149.4382495618586</v>
       </c>
       <c r="L12" t="n">
         <v>200.9381683613497</v>
@@ -31852,7 +31852,7 @@
         <v>234.4853648365856</v>
       </c>
       <c r="N12" t="n">
-        <v>240.6914947108308</v>
+        <v>240.6914947108307</v>
       </c>
       <c r="O12" t="n">
         <v>220.1856947600876</v>
@@ -31864,16 +31864,16 @@
         <v>118.1315917985804</v>
       </c>
       <c r="R12" t="n">
-        <v>57.4584529102771</v>
+        <v>57.45845291027709</v>
       </c>
       <c r="S12" t="n">
         <v>17.18964029916807</v>
       </c>
       <c r="T12" t="n">
-        <v>3.730172239654183</v>
+        <v>3.730172239654182</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06088420412928486</v>
+        <v>0.06088420412928485</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,19 +31913,19 @@
         <v>0.7758577269371159</v>
       </c>
       <c r="H13" t="n">
-        <v>6.898080517677272</v>
+        <v>6.898080517677271</v>
       </c>
       <c r="I13" t="n">
         <v>23.332157824618</v>
       </c>
       <c r="J13" t="n">
-        <v>54.85314129445409</v>
+        <v>54.85314129445408</v>
       </c>
       <c r="K13" t="n">
-        <v>90.14056136596672</v>
+        <v>90.1405613659667</v>
       </c>
       <c r="L13" t="n">
-        <v>115.34888423936</v>
+        <v>115.3488842393599</v>
       </c>
       <c r="M13" t="n">
         <v>121.6192253234244</v>
@@ -31937,16 +31937,16 @@
         <v>109.6639630765298</v>
       </c>
       <c r="P13" t="n">
-        <v>93.8364654470126</v>
+        <v>93.83646544701259</v>
       </c>
       <c r="Q13" t="n">
-        <v>64.96750475288887</v>
+        <v>64.96750475288886</v>
       </c>
       <c r="R13" t="n">
-        <v>34.88538470391795</v>
+        <v>34.88538470391794</v>
       </c>
       <c r="S13" t="n">
-        <v>13.52108420489501</v>
+        <v>13.521084204895</v>
       </c>
       <c r="T13" t="n">
         <v>3.315028469640403</v>
@@ -31995,7 +31995,7 @@
         <v>17.71369318248255</v>
       </c>
       <c r="I14" t="n">
-        <v>66.68201209985686</v>
+        <v>66.68201209985685</v>
       </c>
       <c r="J14" t="n">
         <v>146.801178249406</v>
@@ -32010,7 +32010,7 @@
         <v>303.7099502530053</v>
       </c>
       <c r="N14" t="n">
-        <v>308.6242947670763</v>
+        <v>308.6242947670762</v>
       </c>
       <c r="O14" t="n">
         <v>291.4251699938981</v>
@@ -32019,16 +32019,16 @@
         <v>248.7246402301936</v>
       </c>
       <c r="Q14" t="n">
-        <v>186.781846421073</v>
+        <v>186.7818464210729</v>
       </c>
       <c r="R14" t="n">
-        <v>108.6496061881236</v>
+        <v>108.6496061881235</v>
       </c>
       <c r="S14" t="n">
-        <v>39.41421051100417</v>
+        <v>39.41421051100416</v>
       </c>
       <c r="T14" t="n">
-        <v>7.571506594050277</v>
+        <v>7.571506594050276</v>
       </c>
       <c r="U14" t="n">
         <v>0.1383713369558016</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9254399027651294</v>
+        <v>0.9254399027651293</v>
       </c>
       <c r="H15" t="n">
-        <v>8.937801166179016</v>
+        <v>8.937801166179014</v>
       </c>
       <c r="I15" t="n">
         <v>31.86273349432573</v>
@@ -32080,7 +32080,7 @@
         <v>87.43377607659498</v>
       </c>
       <c r="K15" t="n">
-        <v>149.4382495618587</v>
+        <v>149.4382495618586</v>
       </c>
       <c r="L15" t="n">
         <v>200.9381683613497</v>
@@ -32089,7 +32089,7 @@
         <v>234.4853648365856</v>
       </c>
       <c r="N15" t="n">
-        <v>240.6914947108308</v>
+        <v>240.6914947108307</v>
       </c>
       <c r="O15" t="n">
         <v>220.1856947600876</v>
@@ -32101,16 +32101,16 @@
         <v>118.1315917985804</v>
       </c>
       <c r="R15" t="n">
-        <v>57.4584529102771</v>
+        <v>57.45845291027709</v>
       </c>
       <c r="S15" t="n">
         <v>17.18964029916807</v>
       </c>
       <c r="T15" t="n">
-        <v>3.730172239654183</v>
+        <v>3.730172239654182</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06088420412928486</v>
+        <v>0.06088420412928485</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,19 +32150,19 @@
         <v>0.7758577269371159</v>
       </c>
       <c r="H16" t="n">
-        <v>6.898080517677272</v>
+        <v>6.898080517677271</v>
       </c>
       <c r="I16" t="n">
         <v>23.332157824618</v>
       </c>
       <c r="J16" t="n">
-        <v>54.85314129445409</v>
+        <v>54.85314129445408</v>
       </c>
       <c r="K16" t="n">
-        <v>90.14056136596672</v>
+        <v>90.1405613659667</v>
       </c>
       <c r="L16" t="n">
-        <v>115.34888423936</v>
+        <v>115.3488842393599</v>
       </c>
       <c r="M16" t="n">
         <v>121.6192253234244</v>
@@ -32174,16 +32174,16 @@
         <v>109.6639630765298</v>
       </c>
       <c r="P16" t="n">
-        <v>93.8364654470126</v>
+        <v>93.83646544701259</v>
       </c>
       <c r="Q16" t="n">
-        <v>64.96750475288887</v>
+        <v>64.96750475288886</v>
       </c>
       <c r="R16" t="n">
-        <v>34.88538470391795</v>
+        <v>34.88538470391794</v>
       </c>
       <c r="S16" t="n">
-        <v>13.52108420489501</v>
+        <v>13.521084204895</v>
       </c>
       <c r="T16" t="n">
         <v>3.315028469640403</v>
@@ -32463,34 +32463,34 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.729641711947521</v>
+        <v>1.72964171194752</v>
       </c>
       <c r="H20" t="n">
-        <v>17.71369318248255</v>
+        <v>17.71369318248254</v>
       </c>
       <c r="I20" t="n">
-        <v>66.68201209985685</v>
+        <v>66.68201209985682</v>
       </c>
       <c r="J20" t="n">
         <v>146.801178249406</v>
       </c>
       <c r="K20" t="n">
-        <v>220.0169119161446</v>
+        <v>220.0169119161445</v>
       </c>
       <c r="L20" t="n">
-        <v>272.9504344581586</v>
+        <v>272.9504344581584</v>
       </c>
       <c r="M20" t="n">
-        <v>303.7099502530053</v>
+        <v>303.7099502530052</v>
       </c>
       <c r="N20" t="n">
-        <v>308.6242947670762</v>
+        <v>308.624294767076</v>
       </c>
       <c r="O20" t="n">
-        <v>291.4251699938981</v>
+        <v>291.4251699938979</v>
       </c>
       <c r="P20" t="n">
-        <v>248.7246402301936</v>
+        <v>248.7246402301935</v>
       </c>
       <c r="Q20" t="n">
         <v>186.7818464210729</v>
@@ -32499,10 +32499,10 @@
         <v>108.6496061881235</v>
       </c>
       <c r="S20" t="n">
-        <v>39.41421051100416</v>
+        <v>39.41421051100414</v>
       </c>
       <c r="T20" t="n">
-        <v>7.571506594050276</v>
+        <v>7.571506594050271</v>
       </c>
       <c r="U20" t="n">
         <v>0.1383713369558016</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9254399027651293</v>
+        <v>0.9254399027651289</v>
       </c>
       <c r="H21" t="n">
-        <v>8.937801166179014</v>
+        <v>8.937801166179009</v>
       </c>
       <c r="I21" t="n">
-        <v>31.86273349432573</v>
+        <v>31.86273349432571</v>
       </c>
       <c r="J21" t="n">
-        <v>87.43377607659498</v>
+        <v>87.43377607659492</v>
       </c>
       <c r="K21" t="n">
         <v>149.4382495618586</v>
       </c>
       <c r="L21" t="n">
-        <v>200.9381683613497</v>
+        <v>200.9381683613496</v>
       </c>
       <c r="M21" t="n">
-        <v>234.4853648365856</v>
+        <v>234.4853648365855</v>
       </c>
       <c r="N21" t="n">
-        <v>240.6914947108307</v>
+        <v>240.6914947108306</v>
       </c>
       <c r="O21" t="n">
-        <v>220.1856947600876</v>
+        <v>220.1856947600875</v>
       </c>
       <c r="P21" t="n">
-        <v>176.7184319587202</v>
+        <v>176.7184319587201</v>
       </c>
       <c r="Q21" t="n">
-        <v>118.1315917985804</v>
+        <v>118.1315917985803</v>
       </c>
       <c r="R21" t="n">
-        <v>57.45845291027709</v>
+        <v>57.45845291027706</v>
       </c>
       <c r="S21" t="n">
-        <v>17.18964029916807</v>
+        <v>17.18964029916806</v>
       </c>
       <c r="T21" t="n">
-        <v>3.730172239654182</v>
+        <v>3.73017223965418</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06088420412928485</v>
+        <v>0.06088420412928482</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,19 +32621,19 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.7758577269371159</v>
+        <v>0.7758577269371154</v>
       </c>
       <c r="H22" t="n">
-        <v>6.898080517677271</v>
+        <v>6.898080517677267</v>
       </c>
       <c r="I22" t="n">
-        <v>23.332157824618</v>
+        <v>23.33215782461799</v>
       </c>
       <c r="J22" t="n">
-        <v>54.85314129445408</v>
+        <v>54.85314129445405</v>
       </c>
       <c r="K22" t="n">
-        <v>90.1405613659667</v>
+        <v>90.14056136596666</v>
       </c>
       <c r="L22" t="n">
         <v>115.3488842393599</v>
@@ -32642,28 +32642,28 @@
         <v>121.6192253234244</v>
       </c>
       <c r="N22" t="n">
-        <v>118.727391977568</v>
+        <v>118.7273919775679</v>
       </c>
       <c r="O22" t="n">
         <v>109.6639630765298</v>
       </c>
       <c r="P22" t="n">
-        <v>93.83646544701259</v>
+        <v>93.83646544701254</v>
       </c>
       <c r="Q22" t="n">
-        <v>64.96750475288886</v>
+        <v>64.96750475288883</v>
       </c>
       <c r="R22" t="n">
-        <v>34.88538470391794</v>
+        <v>34.88538470391793</v>
       </c>
       <c r="S22" t="n">
         <v>13.521084204895</v>
       </c>
       <c r="T22" t="n">
-        <v>3.315028469640403</v>
+        <v>3.315028469640402</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04231951237838819</v>
+        <v>0.04231951237838816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34365,7 +34365,7 @@
         <v>22.54186476467667</v>
       </c>
       <c r="I44" t="n">
-        <v>84.85734078752085</v>
+        <v>84.85734078752128</v>
       </c>
       <c r="J44" t="n">
         <v>186.8143629509071</v>
@@ -34389,7 +34389,7 @@
         <v>316.5188165987025</v>
       </c>
       <c r="Q44" t="n">
-        <v>237.6924495160733</v>
+        <v>237.6924495160726</v>
       </c>
       <c r="R44" t="n">
         <v>138.2639240838884</v>
@@ -35406,7 +35406,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>32.13410955589336</v>
+        <v>32.13410955589335</v>
       </c>
       <c r="J11" t="n">
         <v>117.3812187638195</v>
@@ -35421,7 +35421,7 @@
         <v>266.2786873535735</v>
       </c>
       <c r="N11" t="n">
-        <v>271.3446719326303</v>
+        <v>271.3446719326302</v>
       </c>
       <c r="O11" t="n">
         <v>254.034210637874</v>
@@ -35433,7 +35433,7 @@
         <v>150.6571718164749</v>
       </c>
       <c r="R11" t="n">
-        <v>73.61695629332709</v>
+        <v>73.61695629332706</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35494,10 +35494,10 @@
         <v>127.0390157285253</v>
       </c>
       <c r="L12" t="n">
-        <v>178.4230816471202</v>
+        <v>178.4230816471201</v>
       </c>
       <c r="M12" t="n">
-        <v>211.3885843242577</v>
+        <v>211.3885843242576</v>
       </c>
       <c r="N12" t="n">
         <v>219.3484664972891</v>
@@ -35506,7 +35506,7 @@
         <v>197.0138050378654</v>
       </c>
       <c r="P12" t="n">
-        <v>154.9475907538916</v>
+        <v>154.9475907538915</v>
       </c>
       <c r="Q12" t="n">
         <v>165.7599435450197</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>34.21638531055223</v>
+        <v>112.9251900057248</v>
       </c>
       <c r="K13" t="n">
-        <v>69.17590691325472</v>
+        <v>318.9563201597416</v>
       </c>
       <c r="L13" t="n">
-        <v>219.9348809797787</v>
+        <v>453.4520759799035</v>
       </c>
       <c r="M13" t="n">
-        <v>453.4520759799036</v>
+        <v>99.0437854319386</v>
       </c>
       <c r="N13" t="n">
-        <v>453.4520759799036</v>
+        <v>97.9784910019676</v>
       </c>
       <c r="O13" t="n">
-        <v>453.4520759799036</v>
+        <v>453.4520759799035</v>
       </c>
       <c r="P13" t="n">
-        <v>71.45566478902612</v>
+        <v>219.3311273731423</v>
       </c>
       <c r="Q13" t="n">
-        <v>40.34794198810393</v>
+        <v>40.34794198810391</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,7 +35643,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>32.13410955589336</v>
+        <v>32.13410955589335</v>
       </c>
       <c r="J14" t="n">
         <v>117.3812187638195</v>
@@ -35658,7 +35658,7 @@
         <v>266.2786873535735</v>
       </c>
       <c r="N14" t="n">
-        <v>271.3446719326303</v>
+        <v>271.3446719326302</v>
       </c>
       <c r="O14" t="n">
         <v>254.034210637874</v>
@@ -35670,7 +35670,7 @@
         <v>150.6571718164749</v>
       </c>
       <c r="R14" t="n">
-        <v>73.61695629332709</v>
+        <v>73.61695629332706</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35731,10 +35731,10 @@
         <v>127.0390157285253</v>
       </c>
       <c r="L15" t="n">
-        <v>178.4230816471202</v>
+        <v>178.4230816471201</v>
       </c>
       <c r="M15" t="n">
-        <v>211.3885843242577</v>
+        <v>211.3885843242576</v>
       </c>
       <c r="N15" t="n">
         <v>219.3484664972891</v>
@@ -35743,7 +35743,7 @@
         <v>197.0138050378654</v>
       </c>
       <c r="P15" t="n">
-        <v>154.9475907538916</v>
+        <v>154.9475907538915</v>
       </c>
       <c r="Q15" t="n">
         <v>165.7599435450197</v>
@@ -35807,25 +35807,25 @@
         <v>112.9251900057248</v>
       </c>
       <c r="K16" t="n">
-        <v>318.9563201597417</v>
+        <v>318.9563201597416</v>
       </c>
       <c r="L16" t="n">
-        <v>93.43012434365875</v>
+        <v>93.43012434365872</v>
       </c>
       <c r="M16" t="n">
         <v>453.4520759799035</v>
       </c>
       <c r="N16" t="n">
-        <v>97.97849100196763</v>
+        <v>453.4520759799035</v>
       </c>
       <c r="O16" t="n">
-        <v>291.0258414974434</v>
+        <v>251.4676146743639</v>
       </c>
       <c r="P16" t="n">
-        <v>387.3710229438823</v>
+        <v>71.4556647890261</v>
       </c>
       <c r="Q16" t="n">
-        <v>40.34794198810393</v>
+        <v>40.34794198810391</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35959,16 +35959,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>15.69034674432573</v>
+        <v>39.38459507201446</v>
       </c>
       <c r="J18" t="n">
-        <v>66.82266174326165</v>
+        <v>361.8756844398183</v>
       </c>
       <c r="K18" t="n">
         <v>127.0390157285253</v>
       </c>
       <c r="L18" t="n">
-        <v>453.4520759799034</v>
+        <v>178.4230816471201</v>
       </c>
       <c r="M18" t="n">
         <v>211.3885843242576</v>
@@ -35977,16 +35977,16 @@
         <v>219.3484664972891</v>
       </c>
       <c r="O18" t="n">
-        <v>417.6281791232365</v>
+        <v>197.0138050378654</v>
       </c>
       <c r="P18" t="n">
         <v>154.9475907538915</v>
       </c>
       <c r="Q18" t="n">
-        <v>95.38455350960189</v>
+        <v>165.7599435450197</v>
       </c>
       <c r="R18" t="n">
-        <v>33.78553351613294</v>
+        <v>140.3062408746237</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,25 +36041,25 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>34.21638531055221</v>
+        <v>112.9251900057248</v>
       </c>
       <c r="K19" t="n">
-        <v>229.6252292841741</v>
+        <v>318.9563201597416</v>
       </c>
       <c r="L19" t="n">
-        <v>453.4520759799034</v>
+        <v>93.43012434365872</v>
       </c>
       <c r="M19" t="n">
-        <v>99.0437854319386</v>
+        <v>453.4520759799035</v>
       </c>
       <c r="N19" t="n">
-        <v>97.9784910019676</v>
+        <v>453.4520759799035</v>
       </c>
       <c r="O19" t="n">
-        <v>453.4520759799034</v>
+        <v>87.16477557810538</v>
       </c>
       <c r="P19" t="n">
-        <v>387.3710229438823</v>
+        <v>235.7585038852846</v>
       </c>
       <c r="Q19" t="n">
         <v>40.34794198810391</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>32.13410955589335</v>
+        <v>32.13410955589332</v>
       </c>
       <c r="J20" t="n">
-        <v>117.3812187638195</v>
+        <v>117.3812187638194</v>
       </c>
       <c r="K20" t="n">
-        <v>184.2523111213353</v>
+        <v>184.2523111213351</v>
       </c>
       <c r="L20" t="n">
-        <v>234.6383920255357</v>
+        <v>234.6383920255355</v>
       </c>
       <c r="M20" t="n">
-        <v>266.2786873535735</v>
+        <v>266.2786873535733</v>
       </c>
       <c r="N20" t="n">
-        <v>271.3446719326302</v>
+        <v>271.34467193263</v>
       </c>
       <c r="O20" t="n">
-        <v>254.034210637874</v>
+        <v>254.0342106378738</v>
       </c>
       <c r="P20" t="n">
-        <v>211.1492784199623</v>
+        <v>211.1492784199622</v>
       </c>
       <c r="Q20" t="n">
-        <v>150.6571718164749</v>
+        <v>150.6571718164748</v>
       </c>
       <c r="R20" t="n">
-        <v>73.61695629332706</v>
+        <v>73.61695629332701</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>39.38459507201446</v>
+        <v>39.38459507201444</v>
       </c>
       <c r="J21" t="n">
-        <v>66.82266174326165</v>
+        <v>361.8756844398183</v>
       </c>
       <c r="K21" t="n">
-        <v>127.0390157285253</v>
+        <v>127.0390157285252</v>
       </c>
       <c r="L21" t="n">
-        <v>178.4230816471201</v>
+        <v>178.42308164712</v>
       </c>
       <c r="M21" t="n">
-        <v>211.3885843242576</v>
+        <v>281.7639743596769</v>
       </c>
       <c r="N21" t="n">
-        <v>219.3484664972891</v>
+        <v>219.3484664972889</v>
       </c>
       <c r="O21" t="n">
-        <v>453.4520759799034</v>
+        <v>197.0138050378652</v>
       </c>
       <c r="P21" t="n">
         <v>154.9475907538915</v>
       </c>
       <c r="Q21" t="n">
-        <v>204.3746952995381</v>
+        <v>95.38455350960182</v>
       </c>
       <c r="R21" t="n">
-        <v>140.3062408746237</v>
+        <v>140.3062408746236</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36281,25 +36281,25 @@
         <v>112.9251900057248</v>
       </c>
       <c r="K22" t="n">
-        <v>69.17590691325471</v>
+        <v>318.9563201597416</v>
       </c>
       <c r="L22" t="n">
-        <v>93.43012434365872</v>
+        <v>453.4520759799035</v>
       </c>
       <c r="M22" t="n">
-        <v>453.4520759799034</v>
+        <v>453.4520759799035</v>
       </c>
       <c r="N22" t="n">
-        <v>453.4520759799034</v>
+        <v>97.97849100196754</v>
       </c>
       <c r="O22" t="n">
-        <v>453.4520759799034</v>
+        <v>87.16477557810532</v>
       </c>
       <c r="P22" t="n">
-        <v>71.4556647890261</v>
+        <v>78.30761462303718</v>
       </c>
       <c r="Q22" t="n">
-        <v>88.143893929051</v>
+        <v>193.2504645920423</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36436,7 +36436,7 @@
         <v>24.37508249104526</v>
       </c>
       <c r="J24" t="n">
-        <v>164.1416866887935</v>
+        <v>90.65424043371837</v>
       </c>
       <c r="K24" t="n">
         <v>167.7709795485218</v>
@@ -36460,7 +36460,7 @@
         <v>127.583349582535</v>
       </c>
       <c r="R24" t="n">
-        <v>49.44682259008984</v>
+        <v>122.9342688451652</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>127.8763566124643</v>
+        <v>49.1675519172917</v>
       </c>
       <c r="K25" t="n">
-        <v>328.5516053520362</v>
+        <v>93.74526646502667</v>
       </c>
       <c r="L25" t="n">
-        <v>505.0612472427332</v>
+        <v>503.8233148715047</v>
       </c>
       <c r="M25" t="n">
         <v>549.9058025039541</v>
       </c>
       <c r="N25" t="n">
-        <v>130.3396826557217</v>
+        <v>532.3931400717623</v>
       </c>
       <c r="O25" t="n">
-        <v>117.0555738809967</v>
+        <v>498.5730731771616</v>
       </c>
       <c r="P25" t="n">
-        <v>412.9477646869789</v>
+        <v>97.03240653212266</v>
       </c>
       <c r="Q25" t="n">
-        <v>210.9584748292389</v>
+        <v>58.05595222530044</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>24.37508249104526</v>
+        <v>48.06933081873399</v>
       </c>
       <c r="J27" t="n">
         <v>90.65424043371837</v>
       </c>
       <c r="K27" t="n">
-        <v>241.2584258035969</v>
+        <v>167.7709795485218</v>
       </c>
       <c r="L27" t="n">
         <v>233.1922336396488</v>
@@ -36697,7 +36697,7 @@
         <v>127.583349582535</v>
       </c>
       <c r="R27" t="n">
-        <v>49.44682259008984</v>
+        <v>99.24002051747624</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,13 +36752,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>127.8763566124643</v>
+        <v>49.1675519172917</v>
       </c>
       <c r="K28" t="n">
         <v>93.74526646502667</v>
       </c>
       <c r="L28" t="n">
-        <v>124.8704456354959</v>
+        <v>503.8233148715056</v>
       </c>
       <c r="M28" t="n">
         <v>549.9058025039541</v>
@@ -36770,10 +36770,10 @@
         <v>498.5730731771616</v>
       </c>
       <c r="P28" t="n">
-        <v>244.3739484690202</v>
+        <v>97.03240653212266</v>
       </c>
       <c r="Q28" t="n">
-        <v>210.9584748292389</v>
+        <v>58.05595222530044</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>50.30943824355735</v>
       </c>
       <c r="J29" t="n">
-        <v>157.3944034653202</v>
+        <v>157.3944034653206</v>
       </c>
       <c r="K29" t="n">
         <v>244.2217026407812</v>
@@ -36846,7 +36846,7 @@
         <v>355.4655288436374</v>
       </c>
       <c r="O29" t="n">
-        <v>333.467150432275</v>
+        <v>333.4671504322754</v>
       </c>
       <c r="P29" t="n">
         <v>278.9434547884712</v>
@@ -36907,10 +36907,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>48.06933081873399</v>
+        <v>24.37508249104526</v>
       </c>
       <c r="J30" t="n">
-        <v>90.65424043371837</v>
+        <v>164.1416866887935</v>
       </c>
       <c r="K30" t="n">
         <v>167.7709795485218</v>
@@ -36928,7 +36928,7 @@
         <v>257.029201222871</v>
       </c>
       <c r="P30" t="n">
-        <v>252.9084351705359</v>
+        <v>203.1152372431495</v>
       </c>
       <c r="Q30" t="n">
         <v>127.583349582535</v>
@@ -37004,7 +37004,7 @@
         <v>532.3931400717623</v>
       </c>
       <c r="O31" t="n">
-        <v>497.3351408059328</v>
+        <v>497.3351408059337</v>
       </c>
       <c r="P31" t="n">
         <v>97.03240653212266</v>
@@ -37144,10 +37144,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>24.37508249104526</v>
+        <v>48.06933081873399</v>
       </c>
       <c r="J33" t="n">
-        <v>164.1416866887935</v>
+        <v>140.4474383611047</v>
       </c>
       <c r="K33" t="n">
         <v>167.7709795485218</v>
@@ -37232,7 +37232,7 @@
         <v>93.74526646502667</v>
       </c>
       <c r="L34" t="n">
-        <v>124.8704456354959</v>
+        <v>503.8233148715056</v>
       </c>
       <c r="M34" t="n">
         <v>549.9058025039541</v>
@@ -37244,10 +37244,10 @@
         <v>498.5730731771616</v>
       </c>
       <c r="P34" t="n">
-        <v>323.0827531641936</v>
+        <v>97.03240653212266</v>
       </c>
       <c r="Q34" t="n">
-        <v>210.9584748292389</v>
+        <v>58.05595222530044</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37463,25 +37463,25 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>49.1675519172917</v>
+        <v>127.8763566124643</v>
       </c>
       <c r="K37" t="n">
-        <v>343.5256797115136</v>
+        <v>262.9494642107283</v>
       </c>
       <c r="L37" t="n">
-        <v>124.8704456354959</v>
+        <v>505.0612472427332</v>
       </c>
       <c r="M37" t="n">
         <v>549.9058025039541</v>
       </c>
       <c r="N37" t="n">
-        <v>192.7477153024899</v>
+        <v>130.3396826557217</v>
       </c>
       <c r="O37" t="n">
         <v>498.5730731771616</v>
       </c>
       <c r="P37" t="n">
-        <v>412.9477646869789</v>
+        <v>97.03240653212266</v>
       </c>
       <c r="Q37" t="n">
         <v>210.9584748292389</v>
@@ -37700,19 +37700,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>127.234733676122</v>
+        <v>127.8763566124643</v>
       </c>
       <c r="K40" t="n">
         <v>343.5256797115136</v>
       </c>
       <c r="L40" t="n">
-        <v>124.8704456354959</v>
+        <v>505.0612472427332</v>
       </c>
       <c r="M40" t="n">
-        <v>132.1931959758513</v>
+        <v>153.4142288483122</v>
       </c>
       <c r="N40" t="n">
-        <v>532.3931400717623</v>
+        <v>130.3396826557217</v>
       </c>
       <c r="O40" t="n">
         <v>498.5730731771616</v>
@@ -37858,7 +37858,7 @@
         <v>24.37508249104526</v>
       </c>
       <c r="J42" t="n">
-        <v>90.65424043371837</v>
+        <v>164.1416866887935</v>
       </c>
       <c r="K42" t="n">
         <v>167.7709795485218</v>
@@ -37879,7 +37879,7 @@
         <v>203.1152372431495</v>
       </c>
       <c r="Q42" t="n">
-        <v>201.0707958376104</v>
+        <v>127.583349582535</v>
       </c>
       <c r="R42" t="n">
         <v>49.44682259008984</v>
@@ -37940,7 +37940,7 @@
         <v>127.8763566124643</v>
       </c>
       <c r="K43" t="n">
-        <v>343.5256797115136</v>
+        <v>93.74526646502667</v>
       </c>
       <c r="L43" t="n">
         <v>505.0612472427332</v>
@@ -37949,13 +37949,13 @@
         <v>549.9058025039541</v>
       </c>
       <c r="N43" t="n">
-        <v>431.2809664511013</v>
+        <v>532.3931400717623</v>
       </c>
       <c r="O43" t="n">
         <v>117.0555738809967</v>
       </c>
       <c r="P43" t="n">
-        <v>97.03240653212266</v>
+        <v>245.7006461579485</v>
       </c>
       <c r="Q43" t="n">
         <v>210.9584748292389</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>50.30943824355735</v>
+        <v>50.30943824355779</v>
       </c>
       <c r="J44" t="n">
         <v>157.3944034653206</v>
@@ -38037,7 +38037,7 @@
         <v>278.9434547884712</v>
       </c>
       <c r="Q44" t="n">
-        <v>201.5677749114753</v>
+        <v>201.5677749114746</v>
       </c>
       <c r="R44" t="n">
         <v>103.2312741890919</v>
@@ -38095,7 +38095,7 @@
         <v>48.06933081873399</v>
       </c>
       <c r="J45" t="n">
-        <v>90.65424043371837</v>
+        <v>140.4474383611047</v>
       </c>
       <c r="K45" t="n">
         <v>167.7709795485218</v>
@@ -38107,7 +38107,7 @@
         <v>275.3016014055298</v>
       </c>
       <c r="N45" t="n">
-        <v>334.7462688889712</v>
+        <v>284.9530709615847</v>
       </c>
       <c r="O45" t="n">
         <v>257.029201222871</v>
@@ -38186,13 +38186,13 @@
         <v>132.1931959758513</v>
       </c>
       <c r="N46" t="n">
-        <v>467.4760736830394</v>
+        <v>151.5607155281829</v>
       </c>
       <c r="O46" t="n">
         <v>498.5730731771616</v>
       </c>
       <c r="P46" t="n">
-        <v>97.03240653212266</v>
+        <v>412.9477646869789</v>
       </c>
       <c r="Q46" t="n">
         <v>210.9584748292389</v>
